--- a/src/mmw/apps/export/templates/MMW_BMP_Spreadsheet_Tool.xlsx
+++ b/src/mmw/apps/export/templates/MMW_BMP_Spreadsheet_Tool.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdamiano\Documents\GitHub\WikiWatershed\MMW-BMP-spreadsheet-tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DrexelStuff\DEP_PRP_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282E987-7C2A-48E0-9F2E-BA43608F7999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="465" yWindow="75" windowWidth="13605" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="14" r:id="rId1"/>
@@ -25,12 +26,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Urban BMPs'!$A$10:$Y$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="606">
   <si>
     <t>Load Reductions from BMP Implementation in Urban and Rural Areas</t>
   </si>
@@ -547,12 +550,6 @@
   </si>
   <si>
     <t>Step 5. Calculate the portion of the Stream Bank Sediment Load resulting from "Developed" Lands</t>
-  </si>
-  <si>
-    <t>This is A) 70% of the Stream Bank Sediment Load times the percent of developed lands in the watershed</t>
-  </si>
-  <si>
-    <t>plus B) 30% of the Stream Bank Sediment Load:</t>
   </si>
   <si>
     <t>Stream Bank Sediment Load</t>
@@ -716,12 +713,6 @@
     <t>Step 5. Calculate the portion of the Stream Bank Total Nitrogen (TN) Load resulting from "Developed" Lands</t>
   </si>
   <si>
-    <t>This is A) 70% of the Stream Bank Total Nitrogen Load times the percent of developed lands in the watershed</t>
-  </si>
-  <si>
-    <t>plus B) 30% of the Stream Bank Total Nitrogen Load:</t>
-  </si>
-  <si>
     <t>Stream Bank TN Load</t>
   </si>
   <si>
@@ -783,12 +774,6 @@
   </si>
   <si>
     <t>Step 5. Calculate the portion of the Stream Bank Total Phosphorus (TP) Load resulting from "Developed" Lands</t>
-  </si>
-  <si>
-    <t>This is A) 70% of the Stream Bank Total Phosphorus Load times the percent of developed lands in the</t>
-  </si>
-  <si>
-    <t>watershed plus B) 30% of the Stream Bank Total Phosphorus Load:</t>
   </si>
   <si>
     <t>Stream Bank TP Load</t>
@@ -1785,9 +1770,6 @@
     <t>If an individual planning area has multiple "developed land" types, each type can be represented in separate rows, with each row having the same "Project Name". If it is assumed that the planning area is being reated by one BMP system, then the "Treatment Depth" should be the same for each row.</t>
   </si>
   <si>
-    <t>The examples below show various options for characterizing different types of project areas. Notice that one example demonstrates when a drainage area covers two land uses (see row 13 and 14).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similarly, a given planning area can have multiple "BMP drainage areas" (i.e., areas treated by different BMP systems). If a BMP drainage area has multiple "developed land" types, separate "land use areas" can be represented on separate rows, with each row having the same "Project Name". Also, the treatment depth should be the same for any row associated with the same Project Name. </t>
   </si>
   <si>
@@ -2087,19 +2069,34 @@
     <t>***Note: The length of existing Dirt &amp; Gravel roads within a given watershed are not estimated automaticall by MMW and must be supplied by the user.</t>
   </si>
   <si>
-    <t>2020-01-09 at 1:00pm ET</t>
-  </si>
-  <si>
-    <t>Revision Number:</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
+    <t>2020-01-30 at 1:00pm ET</t>
+  </si>
+  <si>
+    <t>This is A) 75% of the Stream Bank Sediment Load times the percent of developed lands in the watershed</t>
+  </si>
+  <si>
+    <t>plus B) 25% of the Stream Bank Sediment Load:</t>
+  </si>
+  <si>
+    <t>This is A) 75% of the Stream Bank Total Nitrogen Load times the percent of developed lands in the watershed</t>
+  </si>
+  <si>
+    <t>plus B) 25% of the Stream Bank Total Nitrogen Load:</t>
+  </si>
+  <si>
+    <t>This is A) 75% of the Stream Bank Total Phosphorus Load times the percent of developed lands in the</t>
+  </si>
+  <si>
+    <t>watershed plus B) 25% of the Stream Bank Total Phosphorus Load:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples of various options for characterizing different types of project areas are provided in the "Example" spreadsheet that is also available for downloading from the Model My Watershed site. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -5465,9 +5462,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5648,32 +5642,33 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - Accent1" xfId="24" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="58"/>
+    <cellStyle name="20% - Accent1 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="60"/>
+    <cellStyle name="20% - Accent2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="62"/>
+    <cellStyle name="20% - Accent3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="64"/>
+    <cellStyle name="20% - Accent4 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - Accent5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="66"/>
+    <cellStyle name="20% - Accent5 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - Accent6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="68"/>
+    <cellStyle name="20% - Accent6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - Accent1" xfId="25" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="59"/>
+    <cellStyle name="40% - Accent1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="61"/>
+    <cellStyle name="40% - Accent2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="63"/>
+    <cellStyle name="40% - Accent3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="65"/>
+    <cellStyle name="40% - Accent4 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - Accent5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="67"/>
+    <cellStyle name="40% - Accent5 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - Accent6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="69"/>
+    <cellStyle name="40% - Accent6 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - Accent1" xfId="26" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="30" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="34" builtinId="40" customBuiltin="1"/>
@@ -5690,10 +5685,10 @@
     <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
-    <cellStyle name="Comma 2 2" xfId="56"/>
-    <cellStyle name="Comma 3" xfId="49"/>
-    <cellStyle name="Comma 3 2" xfId="72"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Comma 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Comma 3" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Comma 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Explanatory Text" xfId="21" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
@@ -5701,27 +5696,27 @@
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="51"/>
-    <cellStyle name="Normal 2 3" xfId="53"/>
-    <cellStyle name="Normal 2 3 2" xfId="74"/>
-    <cellStyle name="Normal 2 4" xfId="55"/>
-    <cellStyle name="Normal 3" xfId="47"/>
-    <cellStyle name="Normal 3 2" xfId="70"/>
-    <cellStyle name="Note 2" xfId="48"/>
-    <cellStyle name="Note 2 2" xfId="71"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 2 3" xfId="53" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 2 4" xfId="55" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal 3 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Note 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Note 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="54" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="4"/>
-    <cellStyle name="Percent 2 2" xfId="52"/>
-    <cellStyle name="Percent 2 3" xfId="57"/>
-    <cellStyle name="Percent 3" xfId="50"/>
-    <cellStyle name="Percent 3 2" xfId="73"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Percent 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Percent 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Percent 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Percent 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
@@ -8010,13 +8005,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Impervious" displayName="Impervious" ref="B5:E27" totalsRowShown="0" headerRowDxfId="79" tableBorderDxfId="78">
-  <autoFilter ref="B5:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Impervious" displayName="Impervious" ref="B5:E27" totalsRowShown="0" headerRowDxfId="79" tableBorderDxfId="78">
+  <autoFilter ref="B5:E27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Source" dataDxfId="77"/>
-    <tableColumn id="2" name="impervFraction_defaultMapShed"/>
-    <tableColumn id="3" name="impervFraction_manualEntry"/>
-    <tableColumn id="4" name="impervFraction_toUse" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Source" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="impervFraction_defaultMapShed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="impervFraction_manualEntry"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="impervFraction_toUse" dataDxfId="76">
       <calculatedColumnFormula>IF(ISNUMBER(Impervious[[#This Row],[impervFraction_manualEntry]]),Impervious[[#This Row],[impervFraction_manualEntry]],Impervious[[#This Row],[impervFraction_defaultMapShed]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8025,92 +8020,92 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Street_Sweeping" displayName="Street_Sweeping" ref="B30:F31" totalsRowShown="0">
-  <autoFilter ref="B30:F31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Street_Sweeping" displayName="Street_Sweeping" ref="B30:F31" totalsRowShown="0">
+  <autoFilter ref="B30:F31" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Street Sweeping"/>
-    <tableColumn id="2" name="TSS Reduction (%)" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Street Sweeping"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TSS Reduction (%)" dataDxfId="75">
       <calculatedColumnFormula>0.05</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="TP Reduction (%)" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TP Reduction (%)" dataDxfId="74">
       <calculatedColumnFormula>0.05</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TN Reduction (%)" dataDxfId="73">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TN Reduction (%)" dataDxfId="73">
       <calculatedColumnFormula>0.05</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Road Width (ft)" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Road Width (ft)" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Stream_Nutrients" displayName="Stream_Nutrients" ref="B33:E34" totalsRowShown="0">
-  <autoFilter ref="B33:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Stream_Nutrients" displayName="Stream_Nutrients" ref="B33:E34" totalsRowShown="0">
+  <autoFilter ref="B33:E34" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Stream Restoration - Protocol 1"/>
-    <tableColumn id="4" name="TSS (lbs/ft/yr)"/>
-    <tableColumn id="2" name="TP (lbs/ft/yr)"/>
-    <tableColumn id="3" name="TN (lbs/ft/yr)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Stream Restoration - Protocol 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TSS (lbs/ft/yr)"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TP (lbs/ft/yr)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TN (lbs/ft/yr)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="LoadRates" displayName="LoadRates" ref="B14:AA30" totalsRowShown="0" headerRowDxfId="71" tableBorderDxfId="70">
-  <autoFilter ref="B14:AA30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="LoadRates" displayName="LoadRates" ref="B14:AA30" totalsRowShown="0" headerRowDxfId="71" tableBorderDxfId="70">
+  <autoFilter ref="B14:AA30" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="Source" dataDxfId="69"/>
-    <tableColumn id="2" name="area_ac" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Source" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="area_ac" dataDxfId="68">
       <calculatedColumnFormula>+'MMW Output'!C20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="runoff_in" dataDxfId="67"/>
-    <tableColumn id="4" name="erosion_tons" dataDxfId="66"/>
-    <tableColumn id="5" name="Column1" dataDxfId="65"/>
-    <tableColumn id="6" name="sediment_tons" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="runoff_in" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="erosion_tons" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column1" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="sediment_tons" dataDxfId="64">
       <calculatedColumnFormula>+'MMW Output'!D20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="DN_lbs" dataDxfId="63"/>
-    <tableColumn id="8" name="Column2" dataDxfId="62"/>
-    <tableColumn id="9" name="TN_lbs" dataDxfId="61">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DN_lbs" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Column2" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="TN_lbs" dataDxfId="61">
       <calculatedColumnFormula>+'MMW Output'!E20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="DP_lbs" dataDxfId="60"/>
-    <tableColumn id="11" name="Column3" dataDxfId="59"/>
-    <tableColumn id="12" name="TP_lbs" dataDxfId="58">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="DP_lbs" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Column3" dataDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="TP_lbs" dataDxfId="58">
       <calculatedColumnFormula>+'MMW Output'!F20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column4" dataDxfId="57"/>
-    <tableColumn id="14" name="TSS_LoadRateLand_lbPerAcPerY" dataDxfId="56">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Column4" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="TSS_LoadRateLand_lbPerAcPerY" dataDxfId="56">
       <calculatedColumnFormula>IF(C15=0,0,(G15*2000/C15))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TSS_LoadRateBanks_lbPerAcPerY" dataDxfId="55">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="TSS_LoadRateBanks_lbPerAcPerY" dataDxfId="55">
       <calculatedColumnFormula>IF(C15=0,0,'Stream Bank Loading Rates'!#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="TSS_LoadRate_lbPerAcPerY" dataDxfId="54">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="TSS_LoadRate_lbPerAcPerY" dataDxfId="54">
       <calculatedColumnFormula>SUM(O15:P15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Column5" dataDxfId="53"/>
-    <tableColumn id="18" name="TN_LoadRateLand_lbPerAcPerY" dataDxfId="52">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Column5" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="TN_LoadRateLand_lbPerAcPerY" dataDxfId="52">
       <calculatedColumnFormula>IF(C15=0,0,ROUND((J15/C15),2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="TN_LoadRateBanks_lbPerAcPerY" dataDxfId="51">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="TN_LoadRateBanks_lbPerAcPerY" dataDxfId="51">
       <calculatedColumnFormula>IF(C15=0,0,ROUND('Stream Bank Loading Rates'!#REF!,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TN_LoadRateAnimal_lbPerAcPerY" dataDxfId="50"/>
-    <tableColumn id="21" name="TN_LoadRate_lbPerAcPerY" dataDxfId="49">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="TN_LoadRateAnimal_lbPerAcPerY" dataDxfId="50"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="TN_LoadRate_lbPerAcPerY" dataDxfId="49">
       <calculatedColumnFormula>SUM(S15:U15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Column6" dataDxfId="48"/>
-    <tableColumn id="23" name="TP_LoadRateLand_lbPerAcPerY" dataDxfId="47">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="Column6" dataDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="TP_LoadRateLand_lbPerAcPerY" dataDxfId="47">
       <calculatedColumnFormula>IF(C15=0,0,ROUND((M15/C15),2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="TP_LoadRateBanks_lbPerAcPerY" dataDxfId="46">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="TP_LoadRateBanks_lbPerAcPerY" dataDxfId="46">
       <calculatedColumnFormula>IF(C15=0,0,ROUND('Stream Bank Loading Rates'!#REF!,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="TP_LoadRateAnimal_lbPerAcPerY" dataDxfId="45"/>
-    <tableColumn id="26" name="TP_LoadRate_lbPerAcPerY" dataDxfId="44">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="TP_LoadRateAnimal_lbPerAcPerY" dataDxfId="45"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="TP_LoadRate_lbPerAcPerY" dataDxfId="44">
       <calculatedColumnFormula>SUM(X15:Z15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8119,63 +8114,63 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="UrbanBMPs" displayName="UrbanBMPs" ref="A10:Y23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A10:Y23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="UrbanBMPs" displayName="UrbanBMPs" ref="A10:Y23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A10:Y23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="Project_name" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="BMP_name" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="BMP_type" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Existing?" dataDxfId="21" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="YearInstalled" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" name="drainageLandCoverClass" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="drainageArea_ac" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" name="treatmentDepth_in" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" name="lengthTreatedStream_ft" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" name="lengthTreatedRoad_ft2" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="11" name="impervArea_ac" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" name="treatmentDepthNormalized_inPerImpervAc" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" name="treatmentDepthNormalizedManual_inPerImpervAc" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" name="treatmentDepthNormalizedEffective_inPerImpervAc" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" name="impervFraction_percent" dataDxfId="10" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Project_name" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="BMP_name" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="BMP_type" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Existing?" dataDxfId="21" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="YearInstalled" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="drainageLandCoverClass" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="drainageArea_ac" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="treatmentDepth_in" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="lengthTreatedStream_ft" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="lengthTreatedRoad_ft2" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="impervArea_ac" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="treatmentDepthNormalized_inPerImpervAc" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="treatmentDepthNormalizedManual_inPerImpervAc" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="treatmentDepthNormalizedEffective_inPerImpervAc" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="impervFraction_percent" dataDxfId="10" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration",NA(),IFERROR(INDEX(Impervious[#All],MATCH(UrbanBMPs[[#This Row],[drainageLandCoverClass]],Impervious[[#All],[Source]],0),4),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="TSS_Load_lbPerY" dataDxfId="9" dataCellStyle="Normal 2">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="TSS_Load_lbPerY" dataDxfId="9" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",
 UrbanBMPs[[#This Row],[lengthTreatedRoad_ft2]]*Street_Sweeping[Road Width (ft)]/43560*INDEX(LoadRates[#All],MATCH(UrbanBMPs[[#This Row],[drainageLandCoverClass]],LoadRates[[#All],[Source]],0),(COLUMN(LoadRates[TSS_LoadRateLand_lbPerAcPerY])-1))*UrbanBMPs[[#This Row],[impervFraction_percent]],
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration",
 NA(),
 INDEX(LoadRates[#All],MATCH(UrbanBMPs[[#This Row],[drainageLandCoverClass]],LoadRates[[#All],[Source]],0), (COLUMN(LoadRates[TSS_LoadRate_lbPerAcPerY])-1))*UrbanBMPs[[#This Row],[drainageArea_ac]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="TP_Load_lbPerY" dataDxfId="8" dataCellStyle="Normal 2">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="TP_Load_lbPerY" dataDxfId="8" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",
 UrbanBMPs[[#This Row],[lengthTreatedRoad_ft2]]*Street_Sweeping[Road Width (ft)]/43560*INDEX(LoadRates[#All],MATCH(UrbanBMPs[[#This Row],[drainageLandCoverClass]],LoadRates[[#All],[Source]],0),(COLUMN(LoadRates[TP_LoadRateLand_lbPerAcPerY])-1))*UrbanBMPs[[#This Row],[impervFraction_percent]],
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration",
 NA(),
 INDEX(LoadRates[#All],MATCH(UrbanBMPs[[#This Row],[drainageLandCoverClass]],LoadRates[[#All],[Source]],0), (COLUMN(LoadRates[TP_LoadRate_lbPerAcPerY])-1))*UrbanBMPs[[#This Row],[drainageArea_ac]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TN_Load_lbPerY" dataDxfId="7" dataCellStyle="Normal 2">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="TN_Load_lbPerY" dataDxfId="7" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",
 UrbanBMPs[[#This Row],[lengthTreatedRoad_ft2]]*Street_Sweeping[Road Width (ft)]/43560*INDEX(LoadRates[#All],MATCH(UrbanBMPs[[#This Row],[drainageLandCoverClass]],LoadRates[[#All],[Source]],0),(COLUMN(LoadRates[TN_LoadRateLand_lbPerAcPerY])-1))*UrbanBMPs[[#This Row],[impervFraction_percent]],
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration",
 NA(),
 INDEX(LoadRates[#All],MATCH(UrbanBMPs[[#This Row],[drainageLandCoverClass]],LoadRates[[#All],[Source]],0), (COLUMN(LoadRates[TN_LoadRate_lbPerAcPerY])-1))*UrbanBMPs[[#This Row],[drainageArea_ac]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="TSS_ReductionEfficiency_percent" dataDxfId="6" dataCellStyle="Normal 2">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="TSS_ReductionEfficiency_percent" dataDxfId="6" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[BMP_type]]="RR",0.0326*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^5-0.2806*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^4+0.9816*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^3-1.8039*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^2+1.8292*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]-0.0098,
 IF(UrbanBMPs[[#This Row],[BMP_type]]="ST",0.0304*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^5-0.2619*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^4+0.9161*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^3-1.6837*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^2+1.7072*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]-0.0091,
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",Street_Sweeping[TSS Reduction (%)],
 IF(OR(UrbanBMPs[[#This Row],[BMP_type]]="Other",UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration"),0,1))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TP_ReductionEfficiency_percent" dataDxfId="5" dataCellStyle="Normal 2">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="TP_ReductionEfficiency_percent" dataDxfId="5" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[BMP_type]]="RR",0.0304*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^5-0.2619*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^4+0.9161*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^3-1.6837*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^2+1.7072*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]-0.0091,
 IF(UrbanBMPs[[#This Row],[BMP_type]]="ST",0.0239*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^5-0.2058*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^4+0.7198*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^3-1.3229*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^2+1.3414*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]-0.0072,
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",Street_Sweeping[TP Reduction (%)],
 IF(OR(UrbanBMPs[[#This Row],[BMP_type]]="Other",UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration"),0,1))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="TN_ReductionEfficiency_percent" dataDxfId="4" dataCellStyle="Normal 2">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="TN_ReductionEfficiency_percent" dataDxfId="4" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[BMP_type]]="RR",0.0308*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^5-0.2562*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^4+0.8634*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^3-1.5285*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^2+1.501*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]-0.013,IF(UrbanBMPs[[#This Row],[BMP_type]]="ST",0.0152*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^5-0.131*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^4+0.4581*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^3-0.8418*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]^2+0.8536*UrbanBMPs[[#This Row],[treatmentDepthNormalizedEffective_inPerImpervAc]]-0.0046,IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",Street_Sweeping[TN Reduction (%)],IF(OR(UrbanBMPs[[#This Row],[BMP_type]]="Other",UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration"),0,1))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="TSS_Reduction_lbPerY" dataDxfId="3" dataCellStyle="Normal 2">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="TSS_Reduction_lbPerY" dataDxfId="3" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[TSS_ReductionEfficiency_percent]]&gt;0,
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",
 UrbanBMPs[[#This Row],[TSS_Load_lbPerY]]*UrbanBMPs[[#This Row],[TSS_ReductionEfficiency_percent]],
@@ -8183,8 +8178,8 @@
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration",Stream_Nutrients[TSS (lbs/ft/yr)]*UrbanBMPs[[#This Row],[lengthTreatedStream_ft]],
 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="TSS_Reduction_tonPerY" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="24" name="TP_Reduction_lbPerY" dataDxfId="1" dataCellStyle="Normal 2">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="TSS_Reduction_tonPerY" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="TP_Reduction_lbPerY" dataDxfId="1" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[TP_ReductionEfficiency_percent]]&gt;0,
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",
 UrbanBMPs[[#This Row],[TP_Load_lbPerY]]*UrbanBMPs[[#This Row],[TP_ReductionEfficiency_percent]],
@@ -8192,7 +8187,7 @@
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Stream Restoration",Stream_Nutrients[TP (lbs/ft/yr)]*UrbanBMPs[[#This Row],[lengthTreatedStream_ft]],
 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="TN_Reduction_lbPerY" dataDxfId="0" dataCellStyle="Normal 2">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="TN_Reduction_lbPerY" dataDxfId="0" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(UrbanBMPs[[#This Row],[TN_ReductionEfficiency_percent]]&gt;0,
 IF(UrbanBMPs[[#This Row],[BMP_type]]="Street Sweeping",
 UrbanBMPs[[#This Row],[TN_Load_lbPerY]]*UrbanBMPs[[#This Row],[TN_ReductionEfficiency_percent]],
@@ -8501,12 +8496,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8523,7 +8516,7 @@
       <c r="C1" s="431"/>
       <c r="D1" s="431"/>
       <c r="E1" s="432" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="436" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -8536,12 +8529,6 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="440" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="441" t="s">
-        <v>607</v>
-      </c>
       <c r="E3" s="438"/>
       <c r="F3" s="437"/>
       <c r="G3" s="437"/>
@@ -8550,10 +8537,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="440" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C4" s="441" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E4" s="442"/>
       <c r="F4" s="437"/>
@@ -8580,7 +8567,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="445" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E7" s="446"/>
       <c r="F7" s="437"/>
@@ -8596,7 +8583,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="437" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E9" s="442"/>
     </row>
@@ -8610,10 +8597,10 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="440" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C11" s="338" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F11" s="437"/>
       <c r="G11" s="437"/>
@@ -8622,18 +8609,18 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="440" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C12" s="338" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="440" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C13" s="338" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E13" s="438"/>
       <c r="F13" s="437"/>
@@ -8653,36 +8640,36 @@
       <c r="I15" s="437"/>
     </row>
     <row r="16" spans="1:12" s="448" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="553" t="s">
+      <c r="A16" s="552" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="553"/>
-      <c r="C16" s="553"/>
-      <c r="D16" s="553"/>
-      <c r="E16" s="553"/>
-      <c r="F16" s="553"/>
-      <c r="G16" s="553"/>
-      <c r="H16" s="553"/>
-      <c r="I16" s="553"/>
-      <c r="J16" s="553"/>
-      <c r="K16" s="553"/>
-      <c r="L16" s="553"/>
+      <c r="B16" s="552"/>
+      <c r="C16" s="552"/>
+      <c r="D16" s="552"/>
+      <c r="E16" s="552"/>
+      <c r="F16" s="552"/>
+      <c r="G16" s="552"/>
+      <c r="H16" s="552"/>
+      <c r="I16" s="552"/>
+      <c r="J16" s="552"/>
+      <c r="K16" s="552"/>
+      <c r="L16" s="552"/>
     </row>
     <row r="17" spans="1:12" s="448" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="553" t="s">
+      <c r="A17" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="553"/>
-      <c r="C17" s="553"/>
-      <c r="D17" s="553"/>
-      <c r="E17" s="553"/>
-      <c r="F17" s="553"/>
-      <c r="G17" s="553"/>
-      <c r="H17" s="553"/>
-      <c r="I17" s="553"/>
-      <c r="J17" s="553"/>
-      <c r="K17" s="553"/>
-      <c r="L17" s="553"/>
+      <c r="B17" s="552"/>
+      <c r="C17" s="552"/>
+      <c r="D17" s="552"/>
+      <c r="E17" s="552"/>
+      <c r="F17" s="552"/>
+      <c r="G17" s="552"/>
+      <c r="H17" s="552"/>
+      <c r="I17" s="552"/>
+      <c r="J17" s="552"/>
+      <c r="K17" s="552"/>
+      <c r="L17" s="552"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="447"/>
@@ -8694,7 +8681,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="441" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B19" s="447"/>
       <c r="E19" s="442"/>
@@ -8704,56 +8691,56 @@
       <c r="I19" s="437"/>
     </row>
     <row r="20" spans="1:12" s="449" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="551" t="s">
-        <v>459</v>
-      </c>
-      <c r="B20" s="551"/>
-      <c r="C20" s="551"/>
-      <c r="D20" s="551"/>
-      <c r="E20" s="551"/>
-      <c r="F20" s="551"/>
-      <c r="G20" s="551"/>
-      <c r="H20" s="551"/>
-      <c r="I20" s="551"/>
-      <c r="J20" s="551"/>
-      <c r="K20" s="551"/>
-      <c r="L20" s="551"/>
+      <c r="A20" s="550" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="550"/>
+      <c r="C20" s="550"/>
+      <c r="D20" s="550"/>
+      <c r="E20" s="550"/>
+      <c r="F20" s="550"/>
+      <c r="G20" s="550"/>
+      <c r="H20" s="550"/>
+      <c r="I20" s="550"/>
+      <c r="J20" s="550"/>
+      <c r="K20" s="550"/>
+      <c r="L20" s="550"/>
     </row>
     <row r="21" spans="1:12" s="449" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="554" t="s">
-        <v>456</v>
-      </c>
-      <c r="B21" s="554"/>
-      <c r="C21" s="554"/>
-      <c r="D21" s="554"/>
-      <c r="E21" s="554"/>
-      <c r="F21" s="554"/>
-      <c r="G21" s="554"/>
-      <c r="H21" s="554"/>
-      <c r="I21" s="554"/>
-      <c r="J21" s="554"/>
-      <c r="K21" s="554"/>
-      <c r="L21" s="554"/>
+      <c r="A21" s="553" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="553"/>
+      <c r="C21" s="553"/>
+      <c r="D21" s="553"/>
+      <c r="E21" s="553"/>
+      <c r="F21" s="553"/>
+      <c r="G21" s="553"/>
+      <c r="H21" s="553"/>
+      <c r="I21" s="553"/>
+      <c r="J21" s="553"/>
+      <c r="K21" s="553"/>
+      <c r="L21" s="553"/>
     </row>
     <row r="22" spans="1:12" s="449" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="554" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="554"/>
-      <c r="C22" s="554"/>
-      <c r="D22" s="554"/>
-      <c r="E22" s="554"/>
-      <c r="F22" s="554"/>
-      <c r="G22" s="554"/>
-      <c r="H22" s="554"/>
-      <c r="I22" s="554"/>
-      <c r="J22" s="554"/>
-      <c r="K22" s="554"/>
-      <c r="L22" s="554"/>
+      <c r="A22" s="553" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="553"/>
+      <c r="C22" s="553"/>
+      <c r="D22" s="553"/>
+      <c r="E22" s="553"/>
+      <c r="F22" s="553"/>
+      <c r="G22" s="553"/>
+      <c r="H22" s="553"/>
+      <c r="I22" s="553"/>
+      <c r="J22" s="553"/>
+      <c r="K22" s="553"/>
+      <c r="L22" s="553"/>
     </row>
     <row r="23" spans="1:12" s="449" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="450" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B23" s="451"/>
       <c r="C23" s="452"/>
@@ -8766,7 +8753,7 @@
     </row>
     <row r="24" spans="1:12" s="449" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="450" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B24" s="451"/>
       <c r="C24" s="452"/>
@@ -8788,7 +8775,7 @@
     <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="420"/>
       <c r="B26" s="421" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8797,7 +8784,7 @@
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="422"/>
       <c r="B27" s="421" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8806,7 +8793,7 @@
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="423"/>
       <c r="B28" s="421" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8822,7 +8809,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="510" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B30" s="447"/>
       <c r="E30" s="442"/>
@@ -8830,7 +8817,7 @@
       <c r="G30" s="437"/>
       <c r="H30" s="437"/>
       <c r="I30" s="338" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8844,25 +8831,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="441" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E32" s="443"/>
     </row>
     <row r="33" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="551" t="s">
-        <v>484</v>
-      </c>
-      <c r="B33" s="552"/>
-      <c r="C33" s="552"/>
-      <c r="D33" s="552"/>
-      <c r="E33" s="552"/>
-      <c r="F33" s="552"/>
-      <c r="G33" s="552"/>
-      <c r="H33" s="552"/>
-      <c r="I33" s="552"/>
-      <c r="J33" s="552"/>
-      <c r="K33" s="552"/>
-      <c r="L33" s="552"/>
+      <c r="A33" s="550" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" s="551"/>
+      <c r="C33" s="551"/>
+      <c r="D33" s="551"/>
+      <c r="E33" s="551"/>
+      <c r="F33" s="551"/>
+      <c r="G33" s="551"/>
+      <c r="H33" s="551"/>
+      <c r="I33" s="551"/>
+      <c r="J33" s="551"/>
+      <c r="K33" s="551"/>
+      <c r="L33" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8874,10 +8861,10 @@
     <mergeCell ref="A22:L22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C12" r:id="rId3"/>
-    <hyperlink ref="I30" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -8888,13 +8875,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
@@ -8910,12 +8897,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="483" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="484" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8923,13 +8910,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="346" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D4" s="346" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E4" s="346" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8937,13 +8924,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="342" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D5" s="342" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E5" s="342" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9136,7 +9123,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="344" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C22">
         <v>0.15</v>
@@ -9149,7 +9136,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="344" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C23">
         <v>0.52</v>
@@ -9162,7 +9149,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="344" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C24">
         <v>0.87</v>
@@ -9175,7 +9162,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="344" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C25">
         <v>0.15</v>
@@ -9188,7 +9175,7 @@
     </row>
     <row r="26" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="344" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C26">
         <v>0.52</v>
@@ -9201,7 +9188,7 @@
     </row>
     <row r="27" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="344" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C27">
         <v>0.87</v>
@@ -9214,29 +9201,29 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="347" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E30" s="348" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F30" s="348" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C31" s="349">
         <f>0.05</f>
@@ -9263,22 +9250,22 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="347" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E33" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F33"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C34">
         <v>115</v>
@@ -9293,7 +9280,7 @@
     </row>
     <row r="39" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="245" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B39" s="246"/>
       <c r="C39" s="246"/>
@@ -9310,7 +9297,7 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="485" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B40" s="485"/>
       <c r="C40" s="485"/>
@@ -9334,7 +9321,7 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="249" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B41" s="246"/>
       <c r="C41" s="248"/>
@@ -9931,10 +9918,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="251" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B80" s="252" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C80" s="251"/>
       <c r="D80" s="251"/>
@@ -9947,7 +9934,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="253" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B81" s="251"/>
       <c r="C81" s="251"/>
@@ -9961,7 +9948,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="246" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B82" s="246"/>
       <c r="C82" s="246"/>
@@ -9979,7 +9966,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="246" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B83" s="246"/>
       <c r="C83" s="246"/>
@@ -9997,7 +9984,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="246" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B84" s="246"/>
       <c r="C84" s="246"/>
@@ -10031,7 +10018,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="248" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B86" s="246"/>
       <c r="C86" s="246"/>
@@ -10049,7 +10036,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="254" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B87" s="246"/>
       <c r="C87" s="246"/>
@@ -10061,7 +10048,7 @@
       <c r="I87" s="246"/>
       <c r="J87" s="246"/>
       <c r="K87" s="252" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="R87" s="246"/>
       <c r="S87" s="246"/>
@@ -10079,7 +10066,7 @@
       <c r="I88" s="246"/>
       <c r="J88" s="246"/>
       <c r="K88" s="252" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="R88" s="246"/>
       <c r="S88" s="246"/>
@@ -10097,25 +10084,25 @@
       <c r="I89" s="246"/>
       <c r="J89" s="246"/>
       <c r="K89" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q89" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="R89" s="246"/>
       <c r="S89" s="246"/>
@@ -11600,7 +11587,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="246" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B150" s="246"/>
       <c r="C150" s="246"/>
@@ -11617,7 +11604,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="258" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B151" s="246"/>
       <c r="C151" s="246"/>
@@ -11634,7 +11621,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="246" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B152" s="246"/>
       <c r="C152" s="246"/>
@@ -11651,7 +11638,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="246" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B153" s="246"/>
       <c r="C153" s="246"/>
@@ -11668,7 +11655,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="246" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B154" s="246"/>
       <c r="C154" s="246"/>
@@ -11715,7 +11702,7 @@
     </row>
     <row r="157" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A157" s="539" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B157" s="531"/>
       <c r="C157" s="531"/>
@@ -11739,7 +11726,7 @@
     </row>
     <row r="158" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="535" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B158" s="531"/>
       <c r="C158" s="531"/>
@@ -11763,7 +11750,7 @@
     </row>
     <row r="159" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="535" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B159" s="531"/>
       <c r="C159" s="531"/>
@@ -11787,7 +11774,7 @@
     </row>
     <row r="160" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="535" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B160" s="531"/>
       <c r="C160" s="531"/>
@@ -11811,10 +11798,10 @@
     </row>
     <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="535" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B161" s="538" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C161" s="531"/>
       <c r="D161" s="531"/>
@@ -11828,28 +11815,28 @@
     </row>
     <row r="162" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A162" s="543" t="s">
+        <v>574</v>
+      </c>
+      <c r="B162" s="544" t="s">
+        <v>575</v>
+      </c>
+      <c r="C162" s="543" t="s">
+        <v>576</v>
+      </c>
+      <c r="D162" s="543" t="s">
+        <v>577</v>
+      </c>
+      <c r="E162" s="543" t="s">
+        <v>578</v>
+      </c>
+      <c r="F162" s="543" t="s">
+        <v>579</v>
+      </c>
+      <c r="G162" s="543" t="s">
+        <v>580</v>
+      </c>
+      <c r="H162" s="547" t="s">
         <v>581</v>
-      </c>
-      <c r="B162" s="544" t="s">
-        <v>582</v>
-      </c>
-      <c r="C162" s="543" t="s">
-        <v>583</v>
-      </c>
-      <c r="D162" s="543" t="s">
-        <v>584</v>
-      </c>
-      <c r="E162" s="543" t="s">
-        <v>585</v>
-      </c>
-      <c r="F162" s="543" t="s">
-        <v>586</v>
-      </c>
-      <c r="G162" s="543" t="s">
-        <v>587</v>
-      </c>
-      <c r="H162" s="547" t="s">
-        <v>588</v>
       </c>
       <c r="I162" s="532"/>
       <c r="J162" s="532"/>
@@ -11913,10 +11900,10 @@
         <v>101</v>
       </c>
       <c r="C165" s="542" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="D165" s="533" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="E165" s="541">
         <v>11</v>
@@ -11933,7 +11920,7 @@
       <c r="I165" s="531"/>
       <c r="J165" s="531"/>
       <c r="K165" s="537" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12144,10 +12131,10 @@
         <v>51</v>
       </c>
       <c r="B173" s="533" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C173" s="540" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D173" s="533" t="e">
         <v>#N/A</v>
@@ -12223,10 +12210,10 @@
         <v>72</v>
       </c>
       <c r="B176" s="533" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C176" s="540" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D176" s="533" t="e">
         <v>#N/A</v>
@@ -12244,10 +12231,10 @@
         <v>73</v>
       </c>
       <c r="B177" s="533" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C177" s="540" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D177" s="533" t="e">
         <v>#N/A</v>
@@ -12265,10 +12252,10 @@
         <v>74</v>
       </c>
       <c r="B178" s="533" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C178" s="540" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D178" s="533" t="e">
         <v>#N/A</v>
@@ -12449,7 +12436,7 @@
       <c r="I185" s="531"/>
       <c r="J185" s="531"/>
       <c r="K185" s="537" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12470,7 +12457,7 @@
       <c r="I186" s="531"/>
       <c r="J186" s="531"/>
       <c r="K186" s="537" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12491,7 +12478,7 @@
       <c r="I187" s="531"/>
       <c r="J187" s="531"/>
       <c r="K187" s="537" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12665,21 +12652,21 @@
         <v>10</v>
       </c>
       <c r="H197" s="545" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I197" s="536"/>
       <c r="J197" s="531"/>
       <c r="K197" s="546" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K88" r:id="rId1"/>
-    <hyperlink ref="K87" r:id="rId2"/>
-    <hyperlink ref="B80" r:id="rId3"/>
-    <hyperlink ref="B162" r:id="rId4" display="https://www.mrlc.gov/nlcd11_leg.php"/>
-    <hyperlink ref="B161" r:id="rId5"/>
+    <hyperlink ref="K88" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K87" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B80" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B162" r:id="rId4" display="https://www.mrlc.gov/nlcd11_leg.php" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B161" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -12697,15 +12684,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12739,21 +12726,21 @@
       <c r="A2" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="555" t="str">
+      <c r="B2" s="554" t="str">
         <f>+C13</f>
         <v>User Specified</v>
       </c>
-      <c r="C2" s="555"/>
+      <c r="C2" s="554"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="91" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="555" t="str">
+        <v>500</v>
+      </c>
+      <c r="B3" s="554" t="str">
         <f>+C14</f>
         <v>User Specified</v>
       </c>
-      <c r="C3" s="555"/>
+      <c r="C3" s="554"/>
     </row>
     <row r="5" spans="1:13" s="497" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="496" t="s">
@@ -12764,14 +12751,14 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="122.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="556" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="556"/>
-      <c r="C7" s="556"/>
-      <c r="D7" s="556"/>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
+      <c r="A7" s="555" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="555"/>
+      <c r="C7" s="555"/>
+      <c r="D7" s="555"/>
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="93"/>
@@ -12827,31 +12814,31 @@
       <c r="C15" s="98"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="557" t="s">
+      <c r="C16" s="556" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="557"/>
-      <c r="E16" s="557"/>
-      <c r="F16" s="557"/>
+      <c r="D16" s="556"/>
+      <c r="E16" s="556"/>
+      <c r="F16" s="556"/>
       <c r="K16" s="94" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="L16" s="456" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M16" s="456" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N17" s="512" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="O17" s="512" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="P17" s="512" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -12872,7 +12859,7 @@
         <v>80</v>
       </c>
       <c r="K18" s="91" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L18" s="458">
         <v>0</v>
@@ -12912,7 +12899,7 @@
         <v>83</v>
       </c>
       <c r="K19" s="91" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L19" s="458">
         <v>0</v>
@@ -12944,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="91" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L20" s="458">
         <v>0</v>
@@ -12998,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="112" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -13042,7 +13029,7 @@
       </c>
       <c r="H24" s="111"/>
       <c r="K24" s="94" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -13085,31 +13072,31 @@
         <v>0</v>
       </c>
       <c r="K26" s="512" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L26" s="512" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M26" s="512" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="N26" s="512" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="O26" s="512" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="P26" s="512" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="Q26" s="512" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="R26" s="512" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="S26" s="512" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -13134,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="98" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L27" s="458">
         <v>0</v>
@@ -13183,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L28" s="458">
         <v>0</v>
@@ -13232,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="549" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L29" s="458">
         <v>0</v>
@@ -13285,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="549" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L30" s="458">
         <v>0</v>
@@ -13338,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="549" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L31" s="458">
         <v>0</v>
@@ -13391,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L32" s="458">
         <v>0</v>
@@ -13440,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="98" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="L33" s="458">
         <v>0</v>
@@ -13489,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="98" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="L34" s="458">
         <v>0</v>
@@ -13559,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="91" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="R36" s="96">
         <f>SUM(R27:R34)</f>
@@ -13588,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="91" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="R37" s="96">
         <f>R27+R28+R34</f>
@@ -13621,7 +13608,7 @@
       </c>
       <c r="K38" s="112"/>
       <c r="P38" s="91" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="R38" s="96">
         <f>SUM(R29:R33)</f>
@@ -13653,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="91" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="R39" s="513" t="e">
         <f>R37/R38</f>
@@ -13685,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="91" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="R40" s="513" t="e">
         <f>R38/R36</f>
@@ -13725,7 +13712,7 @@
       <c r="E42" s="98"/>
       <c r="F42" s="98"/>
       <c r="K42" s="91" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="119" customFormat="1" x14ac:dyDescent="0.2">
@@ -14408,13 +14395,13 @@
         <v>90</v>
       </c>
       <c r="I72" s="91" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J72" s="91" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K72" s="91" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -14465,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="424" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -14516,13 +14503,13 @@
         <v>0</v>
       </c>
       <c r="M77" s="94" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N77" s="456" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="O77" s="456" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -14573,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="91" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="N79" s="458"/>
       <c r="O79" s="457">
@@ -14605,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="91" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N80" s="458"/>
       <c r="O80" s="457">
@@ -14637,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="91" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="N81" s="458"/>
       <c r="O81" s="457">
@@ -14693,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="112" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -14708,15 +14695,15 @@
         <v>0</v>
       </c>
       <c r="I84" s="240">
-        <f>(+'Landcover Loading Rates'!V17)*F84</f>
+        <f>(+'Landcover Loading Rates'!V21)*F84</f>
         <v>0</v>
       </c>
       <c r="J84" s="240">
-        <f>(+'Landcover Loading Rates'!AA17)*F84</f>
+        <f>(+'Landcover Loading Rates'!AA21)*F84</f>
         <v>0</v>
       </c>
       <c r="K84" s="240">
-        <f>(+'Landcover Loading Rates'!Q17)*F84</f>
+        <f>(+'Landcover Loading Rates'!Q21)*F84</f>
         <v>0</v>
       </c>
     </row>
@@ -14849,10 +14836,10 @@
         <v>88</v>
       </c>
       <c r="D93" s="424" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F93" s="91" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -14975,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="424" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -15002,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="424" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -15113,15 +15100,15 @@
         <v>0</v>
       </c>
       <c r="I105" s="240">
-        <f>(+'Landcover Loading Rates'!V17)*F105</f>
+        <f>(+'Landcover Loading Rates'!V21)*F105</f>
         <v>0</v>
       </c>
       <c r="J105" s="240">
-        <f>(+'Landcover Loading Rates'!AA17)*F105</f>
+        <f>(+'Landcover Loading Rates'!AA21)*F105</f>
         <v>0</v>
       </c>
       <c r="K105" s="240">
-        <f>(+'Landcover Loading Rates'!Q17)*F105</f>
+        <f>(+'Landcover Loading Rates'!Q21)*F105</f>
         <v>0</v>
       </c>
     </row>
@@ -15248,7 +15235,7 @@
     </row>
     <row r="114" spans="1:11" s="94" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="94" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I114" s="425">
         <f>I90+I111</f>
@@ -15279,7 +15266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -15425,7 +15412,7 @@
     </row>
     <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -15448,36 +15435,36 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="564" t="s">
+      <c r="B9" s="563" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="564"/>
-      <c r="D9" s="564"/>
-      <c r="E9" s="564"/>
-      <c r="F9" s="564"/>
-      <c r="G9" s="564"/>
-      <c r="H9" s="564"/>
-      <c r="I9" s="564"/>
-      <c r="J9" s="564"/>
-      <c r="K9" s="564"/>
-      <c r="L9" s="564"/>
-      <c r="M9" s="564"/>
-      <c r="O9" s="565" t="s">
+      <c r="C9" s="563"/>
+      <c r="D9" s="563"/>
+      <c r="E9" s="563"/>
+      <c r="F9" s="563"/>
+      <c r="G9" s="563"/>
+      <c r="H9" s="563"/>
+      <c r="I9" s="563"/>
+      <c r="J9" s="563"/>
+      <c r="K9" s="563"/>
+      <c r="L9" s="563"/>
+      <c r="M9" s="563"/>
+      <c r="O9" s="564" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="566"/>
-      <c r="Q9" s="566"/>
-      <c r="R9" s="566"/>
-      <c r="S9" s="566"/>
-      <c r="T9" s="566"/>
-      <c r="U9" s="566"/>
-      <c r="V9" s="566"/>
-      <c r="W9" s="566"/>
-      <c r="X9" s="566"/>
-      <c r="Y9" s="566"/>
-      <c r="Z9" s="566"/>
-      <c r="AA9" s="566"/>
-      <c r="AB9" s="566"/>
+      <c r="P9" s="565"/>
+      <c r="Q9" s="565"/>
+      <c r="R9" s="565"/>
+      <c r="S9" s="565"/>
+      <c r="T9" s="565"/>
+      <c r="U9" s="565"/>
+      <c r="V9" s="565"/>
+      <c r="W9" s="565"/>
+      <c r="X9" s="565"/>
+      <c r="Y9" s="565"/>
+      <c r="Z9" s="565"/>
+      <c r="AA9" s="565"/>
+      <c r="AB9" s="565"/>
     </row>
     <row r="11" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
@@ -15492,25 +15479,25 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
-      <c r="O11" s="567" t="s">
+      <c r="O11" s="566" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="568"/>
-      <c r="Q11" s="569"/>
+      <c r="P11" s="567"/>
+      <c r="Q11" s="568"/>
       <c r="R11" s="20"/>
-      <c r="S11" s="567" t="s">
+      <c r="S11" s="566" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="568"/>
-      <c r="U11" s="568"/>
-      <c r="V11" s="569"/>
+      <c r="T11" s="567"/>
+      <c r="U11" s="567"/>
+      <c r="V11" s="568"/>
       <c r="W11" s="20"/>
-      <c r="X11" s="567" t="s">
+      <c r="X11" s="566" t="s">
         <v>12</v>
       </c>
-      <c r="Y11" s="568"/>
-      <c r="Z11" s="568"/>
-      <c r="AA11" s="569"/>
+      <c r="Y11" s="567"/>
+      <c r="Z11" s="567"/>
+      <c r="AA11" s="568"/>
     </row>
     <row r="12" spans="1:28" ht="39" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
@@ -15652,84 +15639,84 @@
         <v>13</v>
       </c>
       <c r="C14" s="398" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="398" t="s">
+        <v>417</v>
+      </c>
+      <c r="E14" s="398" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" s="398" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="398" t="s">
+        <v>419</v>
+      </c>
+      <c r="H14" s="398" t="s">
+        <v>420</v>
+      </c>
+      <c r="I14" s="398" t="s">
+        <v>435</v>
+      </c>
+      <c r="J14" s="398" t="s">
+        <v>421</v>
+      </c>
+      <c r="K14" s="398" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="398" t="s">
+      <c r="L14" s="398" t="s">
+        <v>436</v>
+      </c>
+      <c r="M14" s="398" t="s">
         <v>423</v>
       </c>
-      <c r="E14" s="398" t="s">
+      <c r="N14" s="397" t="s">
+        <v>437</v>
+      </c>
+      <c r="O14" s="397" t="s">
+        <v>425</v>
+      </c>
+      <c r="P14" s="397" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q14" s="397" t="s">
         <v>424</v>
       </c>
-      <c r="F14" s="398" t="s">
-        <v>396</v>
-      </c>
-      <c r="G14" s="398" t="s">
-        <v>425</v>
-      </c>
-      <c r="H14" s="398" t="s">
-        <v>426</v>
-      </c>
-      <c r="I14" s="398" t="s">
-        <v>441</v>
-      </c>
-      <c r="J14" s="398" t="s">
+      <c r="R14" s="397" t="s">
+        <v>438</v>
+      </c>
+      <c r="S14" s="397" t="s">
         <v>427</v>
       </c>
-      <c r="K14" s="398" t="s">
+      <c r="T14" s="397" t="s">
         <v>428</v>
       </c>
-      <c r="L14" s="398" t="s">
-        <v>442</v>
-      </c>
-      <c r="M14" s="398" t="s">
+      <c r="U14" s="397" t="s">
         <v>429</v>
       </c>
-      <c r="N14" s="397" t="s">
-        <v>443</v>
-      </c>
-      <c r="O14" s="397" t="s">
+      <c r="V14" s="397" t="s">
+        <v>430</v>
+      </c>
+      <c r="W14" s="397" t="s">
+        <v>439</v>
+      </c>
+      <c r="X14" s="397" t="s">
         <v>431</v>
       </c>
-      <c r="P14" s="397" t="s">
+      <c r="Y14" s="397" t="s">
         <v>432</v>
       </c>
-      <c r="Q14" s="397" t="s">
-        <v>430</v>
-      </c>
-      <c r="R14" s="397" t="s">
-        <v>444</v>
-      </c>
-      <c r="S14" s="397" t="s">
+      <c r="Z14" s="397" t="s">
         <v>433</v>
       </c>
-      <c r="T14" s="397" t="s">
+      <c r="AA14" s="399" t="s">
         <v>434</v>
       </c>
-      <c r="U14" s="397" t="s">
-        <v>435</v>
-      </c>
-      <c r="V14" s="397" t="s">
-        <v>436</v>
-      </c>
-      <c r="W14" s="397" t="s">
-        <v>445</v>
-      </c>
-      <c r="X14" s="397" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y14" s="397" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z14" s="397" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA14" s="399" t="s">
-        <v>440</v>
-      </c>
       <c r="AB14" s="360"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="558" t="s">
+      <c r="A15" s="557" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="362" t="s">
@@ -15822,7 +15809,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="559"/>
+      <c r="A16" s="558"/>
       <c r="B16" s="372" t="s">
         <v>36</v>
       </c>
@@ -15913,7 +15900,7 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="559"/>
+      <c r="A17" s="558"/>
       <c r="B17" s="383" t="s">
         <v>37</v>
       </c>
@@ -16002,7 +15989,7 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="559"/>
+      <c r="A18" s="558"/>
       <c r="B18" s="372" t="s">
         <v>39</v>
       </c>
@@ -16091,7 +16078,7 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="559"/>
+      <c r="A19" s="558"/>
       <c r="B19" s="383" t="s">
         <v>40</v>
       </c>
@@ -16180,7 +16167,7 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="559"/>
+      <c r="A20" s="558"/>
       <c r="B20" s="372" t="s">
         <v>41</v>
       </c>
@@ -16269,7 +16256,7 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="559"/>
+      <c r="A21" s="558"/>
       <c r="B21" s="383" t="s">
         <v>42</v>
       </c>
@@ -16358,7 +16345,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="559"/>
+      <c r="A22" s="558"/>
       <c r="B22" s="372" t="s">
         <v>43</v>
       </c>
@@ -16447,7 +16434,7 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="559"/>
+      <c r="A23" s="558"/>
       <c r="B23" s="383" t="s">
         <v>44</v>
       </c>
@@ -16536,7 +16523,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="559"/>
+      <c r="A24" s="558"/>
       <c r="B24" s="372" t="s">
         <v>45</v>
       </c>
@@ -16625,7 +16612,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="559"/>
+      <c r="A25" s="558"/>
       <c r="B25" s="383" t="s">
         <v>46</v>
       </c>
@@ -16714,7 +16701,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="559"/>
+      <c r="A26" s="558"/>
       <c r="B26" s="372" t="s">
         <v>47</v>
       </c>
@@ -16803,7 +16790,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="559"/>
+      <c r="A27" s="558"/>
       <c r="B27" s="383" t="s">
         <v>48</v>
       </c>
@@ -16892,7 +16879,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="559"/>
+      <c r="A28" s="558"/>
       <c r="B28" s="372" t="s">
         <v>49</v>
       </c>
@@ -16969,7 +16956,7 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="559"/>
+      <c r="A29" s="558"/>
       <c r="B29" s="383" t="s">
         <v>50</v>
       </c>
@@ -17046,7 +17033,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="560"/>
+      <c r="A30" s="559"/>
       <c r="B30" s="357" t="s">
         <v>51</v>
       </c>
@@ -17123,7 +17110,7 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="561" t="s">
+      <c r="A32" s="560" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="44" t="s">
@@ -17176,7 +17163,7 @@
       <c r="AB32" s="9"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="562"/>
+      <c r="A33" s="561"/>
       <c r="B33" s="49" t="s">
         <v>25</v>
       </c>
@@ -17209,7 +17196,7 @@
       <c r="AB33" s="9"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="562"/>
+      <c r="A34" s="561"/>
       <c r="B34" s="54" t="s">
         <v>53</v>
       </c>
@@ -17254,7 +17241,7 @@
       <c r="AB34" s="9"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="562"/>
+      <c r="A35" s="561"/>
       <c r="B35" s="58" t="s">
         <v>54</v>
       </c>
@@ -17296,7 +17283,7 @@
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="560"/>
+      <c r="A36" s="559"/>
       <c r="B36" s="62" t="s">
         <v>66</v>
       </c>
@@ -17525,66 +17512,66 @@
     </row>
     <row r="44" spans="1:28" s="342" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="494"/>
-      <c r="B44" s="563" t="s">
+      <c r="B44" s="562" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="563"/>
-      <c r="D44" s="563"/>
-      <c r="E44" s="563"/>
-      <c r="F44" s="563"/>
-      <c r="G44" s="563"/>
-      <c r="H44" s="563"/>
-      <c r="I44" s="563"/>
-      <c r="J44" s="563"/>
-      <c r="K44" s="563"/>
-      <c r="L44" s="563"/>
-      <c r="M44" s="563"/>
-      <c r="N44" s="563"/>
-      <c r="O44" s="563"/>
-      <c r="P44" s="563"/>
-      <c r="Q44" s="563"/>
-      <c r="R44" s="563"/>
-      <c r="S44" s="563"/>
-      <c r="T44" s="563"/>
-      <c r="U44" s="563"/>
-      <c r="V44" s="563"/>
-      <c r="W44" s="563"/>
-      <c r="X44" s="563"/>
-      <c r="Y44" s="563"/>
-      <c r="Z44" s="563"/>
-      <c r="AA44" s="563"/>
+      <c r="C44" s="562"/>
+      <c r="D44" s="562"/>
+      <c r="E44" s="562"/>
+      <c r="F44" s="562"/>
+      <c r="G44" s="562"/>
+      <c r="H44" s="562"/>
+      <c r="I44" s="562"/>
+      <c r="J44" s="562"/>
+      <c r="K44" s="562"/>
+      <c r="L44" s="562"/>
+      <c r="M44" s="562"/>
+      <c r="N44" s="562"/>
+      <c r="O44" s="562"/>
+      <c r="P44" s="562"/>
+      <c r="Q44" s="562"/>
+      <c r="R44" s="562"/>
+      <c r="S44" s="562"/>
+      <c r="T44" s="562"/>
+      <c r="U44" s="562"/>
+      <c r="V44" s="562"/>
+      <c r="W44" s="562"/>
+      <c r="X44" s="562"/>
+      <c r="Y44" s="562"/>
+      <c r="Z44" s="562"/>
+      <c r="AA44" s="562"/>
       <c r="AB44" s="494"/>
     </row>
     <row r="45" spans="1:28" s="342" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="494"/>
-      <c r="B45" s="563" t="s">
+      <c r="B45" s="562" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="563"/>
-      <c r="D45" s="563"/>
-      <c r="E45" s="563"/>
-      <c r="F45" s="563"/>
-      <c r="G45" s="563"/>
-      <c r="H45" s="563"/>
-      <c r="I45" s="563"/>
-      <c r="J45" s="563"/>
-      <c r="K45" s="563"/>
-      <c r="L45" s="563"/>
-      <c r="M45" s="563"/>
-      <c r="N45" s="563"/>
-      <c r="O45" s="563"/>
-      <c r="P45" s="563"/>
-      <c r="Q45" s="563"/>
-      <c r="R45" s="563"/>
-      <c r="S45" s="563"/>
-      <c r="T45" s="563"/>
-      <c r="U45" s="563"/>
-      <c r="V45" s="563"/>
-      <c r="W45" s="563"/>
-      <c r="X45" s="563"/>
-      <c r="Y45" s="563"/>
-      <c r="Z45" s="563"/>
-      <c r="AA45" s="563"/>
+      <c r="C45" s="562"/>
+      <c r="D45" s="562"/>
+      <c r="E45" s="562"/>
+      <c r="F45" s="562"/>
+      <c r="G45" s="562"/>
+      <c r="H45" s="562"/>
+      <c r="I45" s="562"/>
+      <c r="J45" s="562"/>
+      <c r="K45" s="562"/>
+      <c r="L45" s="562"/>
+      <c r="M45" s="562"/>
+      <c r="N45" s="562"/>
+      <c r="O45" s="562"/>
+      <c r="P45" s="562"/>
+      <c r="Q45" s="562"/>
+      <c r="R45" s="562"/>
+      <c r="S45" s="562"/>
+      <c r="T45" s="562"/>
+      <c r="U45" s="562"/>
+      <c r="V45" s="562"/>
+      <c r="W45" s="562"/>
+      <c r="X45" s="562"/>
+      <c r="Y45" s="562"/>
+      <c r="Z45" s="562"/>
+      <c r="AA45" s="562"/>
       <c r="AB45" s="494"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -17748,7 +17735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
@@ -17756,7 +17743,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -17798,39 +17785,39 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="571" t="s">
+      <c r="A5" s="570" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="571"/>
-      <c r="C5" s="571"/>
-      <c r="D5" s="571"/>
-      <c r="E5" s="571"/>
-      <c r="F5" s="571"/>
+      <c r="B5" s="570"/>
+      <c r="C5" s="570"/>
+      <c r="D5" s="570"/>
+      <c r="E5" s="570"/>
+      <c r="F5" s="570"/>
       <c r="G5" s="123"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="572" t="s">
+      <c r="A6" s="571" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="572"/>
-      <c r="C6" s="572"/>
-      <c r="D6" s="572"/>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="572"/>
+      <c r="B6" s="571"/>
+      <c r="C6" s="571"/>
+      <c r="D6" s="571"/>
+      <c r="E6" s="571"/>
+      <c r="F6" s="571"/>
+      <c r="G6" s="571"/>
+      <c r="H6" s="571"/>
     </row>
     <row r="9" spans="1:8" s="495" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="570" t="s">
+      <c r="A9" s="569" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="570"/>
-      <c r="C9" s="570"/>
-      <c r="D9" s="570"/>
-      <c r="E9" s="570"/>
-      <c r="F9" s="570"/>
-      <c r="G9" s="570"/>
-      <c r="H9" s="570"/>
+      <c r="B9" s="569"/>
+      <c r="C9" s="569"/>
+      <c r="D9" s="569"/>
+      <c r="E9" s="569"/>
+      <c r="F9" s="569"/>
+      <c r="G9" s="569"/>
+      <c r="H9" s="569"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="94"/>
@@ -17862,23 +17849,23 @@
       <c r="F13" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="573" t="s">
-        <v>599</v>
-      </c>
-      <c r="H13" s="574"/>
+      <c r="G13" s="572" t="s">
+        <v>592</v>
+      </c>
+      <c r="H13" s="573"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F14" s="131"/>
-      <c r="G14" s="575"/>
-      <c r="H14" s="576"/>
+      <c r="G14" s="574"/>
+      <c r="H14" s="575"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="94" t="s">
         <v>134</v>
       </c>
       <c r="F15" s="131"/>
-      <c r="G15" s="577"/>
-      <c r="H15" s="578"/>
+      <c r="G15" s="576"/>
+      <c r="H15" s="577"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="132" t="s">
@@ -17914,29 +17901,29 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="579" t="s">
+      <c r="B19" s="578" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="579"/>
-      <c r="D19" s="579"/>
-      <c r="E19" s="579"/>
-      <c r="F19" s="579"/>
-      <c r="G19" s="579"/>
+      <c r="C19" s="578"/>
+      <c r="D19" s="578"/>
+      <c r="E19" s="578"/>
+      <c r="F19" s="578"/>
+      <c r="G19" s="578"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D20" s="139"/>
     </row>
     <row r="22" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="580" t="s">
+      <c r="A22" s="579" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="580"/>
-      <c r="C22" s="580"/>
-      <c r="D22" s="580"/>
-      <c r="E22" s="580"/>
-      <c r="F22" s="580"/>
-      <c r="G22" s="580"/>
-      <c r="H22" s="580"/>
+      <c r="B22" s="579"/>
+      <c r="C22" s="579"/>
+      <c r="D22" s="579"/>
+      <c r="E22" s="579"/>
+      <c r="F22" s="579"/>
+      <c r="G22" s="579"/>
+      <c r="H22" s="579"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C23" s="140"/>
@@ -17970,16 +17957,16 @@
       <c r="E26" s="142"/>
     </row>
     <row r="27" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="570" t="s">
+      <c r="A27" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="570"/>
-      <c r="C27" s="570"/>
-      <c r="D27" s="570"/>
-      <c r="E27" s="570"/>
-      <c r="F27" s="570"/>
-      <c r="G27" s="570"/>
-      <c r="H27" s="570"/>
+      <c r="B27" s="569"/>
+      <c r="C27" s="569"/>
+      <c r="D27" s="569"/>
+      <c r="E27" s="569"/>
+      <c r="F27" s="569"/>
+      <c r="G27" s="569"/>
+      <c r="H27" s="569"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D28" s="139"/>
@@ -18065,16 +18052,16 @@
       <c r="C35" s="164"/>
     </row>
     <row r="36" spans="1:8" s="495" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="570" t="s">
+      <c r="A36" s="569" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="570"/>
-      <c r="C36" s="570"/>
-      <c r="D36" s="570"/>
-      <c r="E36" s="570"/>
-      <c r="F36" s="570"/>
-      <c r="G36" s="570"/>
-      <c r="H36" s="570"/>
+      <c r="B36" s="569"/>
+      <c r="C36" s="569"/>
+      <c r="D36" s="569"/>
+      <c r="E36" s="569"/>
+      <c r="F36" s="569"/>
+      <c r="G36" s="569"/>
+      <c r="H36" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18096,15 +18083,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18179,91 +18166,91 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="571" t="s">
-        <v>502</v>
-      </c>
-      <c r="B5" s="571"/>
-      <c r="C5" s="571"/>
-      <c r="D5" s="571"/>
-      <c r="E5" s="571"/>
-      <c r="F5" s="571"/>
-      <c r="I5" s="571" t="s">
-        <v>503</v>
-      </c>
-      <c r="J5" s="571"/>
-      <c r="K5" s="571"/>
-      <c r="L5" s="571"/>
-      <c r="M5" s="571"/>
-      <c r="N5" s="571"/>
-      <c r="R5" s="571" t="s">
-        <v>504</v>
-      </c>
-      <c r="S5" s="571"/>
-      <c r="T5" s="571"/>
-      <c r="U5" s="571"/>
-      <c r="V5" s="571"/>
-      <c r="W5" s="571"/>
+      <c r="A5" s="570" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" s="570"/>
+      <c r="C5" s="570"/>
+      <c r="D5" s="570"/>
+      <c r="E5" s="570"/>
+      <c r="F5" s="570"/>
+      <c r="I5" s="570" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" s="570"/>
+      <c r="K5" s="570"/>
+      <c r="L5" s="570"/>
+      <c r="M5" s="570"/>
+      <c r="N5" s="570"/>
+      <c r="R5" s="570" t="s">
+        <v>498</v>
+      </c>
+      <c r="S5" s="570"/>
+      <c r="T5" s="570"/>
+      <c r="U5" s="570"/>
+      <c r="V5" s="570"/>
+      <c r="W5" s="570"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="572" t="s">
+      <c r="A6" s="571" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="572"/>
-      <c r="C6" s="572"/>
-      <c r="D6" s="572"/>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="I6" s="572" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="572"/>
-      <c r="K6" s="572"/>
-      <c r="L6" s="572"/>
-      <c r="M6" s="572"/>
-      <c r="N6" s="572"/>
-      <c r="O6" s="572"/>
-      <c r="R6" s="572" t="s">
-        <v>237</v>
-      </c>
-      <c r="S6" s="572"/>
-      <c r="T6" s="572"/>
-      <c r="U6" s="572"/>
-      <c r="V6" s="572"/>
-      <c r="W6" s="572"/>
-      <c r="X6" s="572"/>
+      <c r="B6" s="571"/>
+      <c r="C6" s="571"/>
+      <c r="D6" s="571"/>
+      <c r="E6" s="571"/>
+      <c r="F6" s="571"/>
+      <c r="G6" s="571"/>
+      <c r="I6" s="571" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6" s="571"/>
+      <c r="K6" s="571"/>
+      <c r="L6" s="571"/>
+      <c r="M6" s="571"/>
+      <c r="N6" s="571"/>
+      <c r="O6" s="571"/>
+      <c r="R6" s="571" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="571"/>
+      <c r="T6" s="571"/>
+      <c r="U6" s="571"/>
+      <c r="V6" s="571"/>
+      <c r="W6" s="571"/>
+      <c r="X6" s="571"/>
     </row>
     <row r="9" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="580" t="s">
-        <v>505</v>
-      </c>
-      <c r="B9" s="580"/>
-      <c r="C9" s="580"/>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
-      <c r="G9" s="580"/>
+      <c r="A9" s="579" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="579"/>
+      <c r="C9" s="579"/>
+      <c r="D9" s="579"/>
+      <c r="E9" s="579"/>
+      <c r="F9" s="579"/>
+      <c r="G9" s="579"/>
       <c r="H9" s="491"/>
-      <c r="I9" s="581" t="s">
-        <v>215</v>
-      </c>
-      <c r="J9" s="580"/>
-      <c r="K9" s="580"/>
-      <c r="L9" s="580"/>
-      <c r="M9" s="580"/>
-      <c r="N9" s="580"/>
-      <c r="O9" s="580"/>
+      <c r="I9" s="580" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="579"/>
+      <c r="K9" s="579"/>
+      <c r="L9" s="579"/>
+      <c r="M9" s="579"/>
+      <c r="N9" s="579"/>
+      <c r="O9" s="579"/>
       <c r="P9" s="491"/>
       <c r="Q9" s="491"/>
-      <c r="R9" s="581" t="s">
-        <v>215</v>
-      </c>
-      <c r="S9" s="580"/>
-      <c r="T9" s="580"/>
-      <c r="U9" s="580"/>
-      <c r="V9" s="580"/>
-      <c r="W9" s="580"/>
-      <c r="X9" s="580"/>
+      <c r="R9" s="580" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="579"/>
+      <c r="T9" s="579"/>
+      <c r="U9" s="579"/>
+      <c r="V9" s="579"/>
+      <c r="W9" s="579"/>
+      <c r="X9" s="579"/>
       <c r="Y9" s="492"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -18314,11 +18301,11 @@
       <c r="D12" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="591" t="s">
-        <v>600</v>
-      </c>
-      <c r="F12" s="592"/>
-      <c r="G12" s="593"/>
+      <c r="E12" s="590" t="s">
+        <v>593</v>
+      </c>
+      <c r="F12" s="591"/>
+      <c r="G12" s="592"/>
       <c r="I12" s="488"/>
       <c r="J12" s="482"/>
       <c r="K12" s="482"/>
@@ -18335,9 +18322,9 @@
       <c r="X12" s="482"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E13" s="594"/>
-      <c r="F13" s="595"/>
-      <c r="G13" s="596"/>
+      <c r="E13" s="593"/>
+      <c r="F13" s="594"/>
+      <c r="G13" s="595"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="132" t="s">
@@ -18346,9 +18333,9 @@
       <c r="C14" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="597"/>
-      <c r="F14" s="598"/>
-      <c r="G14" s="599"/>
+      <c r="E14" s="596"/>
+      <c r="F14" s="597"/>
+      <c r="G14" s="598"/>
       <c r="J14" s="132" t="s">
         <v>13</v>
       </c>
@@ -18369,7 +18356,7 @@
       <c r="X14" s="243"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="600" t="s">
+      <c r="A15" s="599" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="169" t="s">
@@ -18379,7 +18366,7 @@
         <f>+'MMW Output'!C20</f>
         <v>0</v>
       </c>
-      <c r="I15" s="582" t="s">
+      <c r="I15" s="581" t="s">
         <v>149</v>
       </c>
       <c r="J15" s="169" t="s">
@@ -18389,7 +18376,7 @@
         <f>+'MMW Output'!C20</f>
         <v>0</v>
       </c>
-      <c r="R15" s="582" t="s">
+      <c r="R15" s="581" t="s">
         <v>149</v>
       </c>
       <c r="S15" s="169" t="s">
@@ -18401,7 +18388,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="601"/>
+      <c r="A16" s="600"/>
       <c r="B16" s="171" t="s">
         <v>36</v>
       </c>
@@ -18409,7 +18396,7 @@
         <f>+'MMW Output'!C21</f>
         <v>0</v>
       </c>
-      <c r="I16" s="583"/>
+      <c r="I16" s="582"/>
       <c r="J16" s="171" t="s">
         <v>36</v>
       </c>
@@ -18417,7 +18404,7 @@
         <f>+'MMW Output'!C21</f>
         <v>0</v>
       </c>
-      <c r="R16" s="583"/>
+      <c r="R16" s="582"/>
       <c r="S16" s="171" t="s">
         <v>36</v>
       </c>
@@ -18427,7 +18414,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="601"/>
+      <c r="A17" s="600"/>
       <c r="B17" s="173" t="s">
         <v>37</v>
       </c>
@@ -18435,7 +18422,7 @@
         <f>+'MMW Output'!C22</f>
         <v>0</v>
       </c>
-      <c r="I17" s="583"/>
+      <c r="I17" s="582"/>
       <c r="J17" s="173" t="s">
         <v>37</v>
       </c>
@@ -18443,7 +18430,7 @@
         <f>+'MMW Output'!C22</f>
         <v>0</v>
       </c>
-      <c r="R17" s="583"/>
+      <c r="R17" s="582"/>
       <c r="S17" s="173" t="s">
         <v>37</v>
       </c>
@@ -18453,7 +18440,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="601"/>
+      <c r="A18" s="600"/>
       <c r="B18" s="171" t="s">
         <v>39</v>
       </c>
@@ -18461,7 +18448,7 @@
         <f>+'MMW Output'!C23</f>
         <v>0</v>
       </c>
-      <c r="I18" s="583"/>
+      <c r="I18" s="582"/>
       <c r="J18" s="171" t="s">
         <v>39</v>
       </c>
@@ -18469,7 +18456,7 @@
         <f>+'MMW Output'!C23</f>
         <v>0</v>
       </c>
-      <c r="R18" s="583"/>
+      <c r="R18" s="582"/>
       <c r="S18" s="171" t="s">
         <v>39</v>
       </c>
@@ -18479,7 +18466,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="601"/>
+      <c r="A19" s="600"/>
       <c r="B19" s="173" t="s">
         <v>40</v>
       </c>
@@ -18487,7 +18474,7 @@
         <f>+'MMW Output'!C24</f>
         <v>0</v>
       </c>
-      <c r="I19" s="583"/>
+      <c r="I19" s="582"/>
       <c r="J19" s="173" t="s">
         <v>40</v>
       </c>
@@ -18495,7 +18482,7 @@
         <f>+'MMW Output'!C24</f>
         <v>0</v>
       </c>
-      <c r="R19" s="583"/>
+      <c r="R19" s="582"/>
       <c r="S19" s="173" t="s">
         <v>40</v>
       </c>
@@ -18505,7 +18492,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="601"/>
+      <c r="A20" s="600"/>
       <c r="B20" s="171" t="s">
         <v>41</v>
       </c>
@@ -18513,7 +18500,7 @@
         <f>+'MMW Output'!C25</f>
         <v>0</v>
       </c>
-      <c r="I20" s="583"/>
+      <c r="I20" s="582"/>
       <c r="J20" s="171" t="s">
         <v>41</v>
       </c>
@@ -18521,7 +18508,7 @@
         <f>+'MMW Output'!C25</f>
         <v>0</v>
       </c>
-      <c r="R20" s="583"/>
+      <c r="R20" s="582"/>
       <c r="S20" s="171" t="s">
         <v>41</v>
       </c>
@@ -18531,7 +18518,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="601"/>
+      <c r="A21" s="600"/>
       <c r="B21" s="173" t="s">
         <v>42</v>
       </c>
@@ -18539,7 +18526,7 @@
         <f>+'MMW Output'!C26</f>
         <v>0</v>
       </c>
-      <c r="I21" s="583"/>
+      <c r="I21" s="582"/>
       <c r="J21" s="173" t="s">
         <v>42</v>
       </c>
@@ -18547,7 +18534,7 @@
         <f>+'MMW Output'!C26</f>
         <v>0</v>
       </c>
-      <c r="R21" s="583"/>
+      <c r="R21" s="582"/>
       <c r="S21" s="173" t="s">
         <v>42</v>
       </c>
@@ -18557,7 +18544,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="601"/>
+      <c r="A22" s="600"/>
       <c r="B22" s="171" t="s">
         <v>43</v>
       </c>
@@ -18565,7 +18552,7 @@
         <f>+'MMW Output'!C27</f>
         <v>0</v>
       </c>
-      <c r="I22" s="583"/>
+      <c r="I22" s="582"/>
       <c r="J22" s="171" t="s">
         <v>43</v>
       </c>
@@ -18573,7 +18560,7 @@
         <f>+'MMW Output'!C27</f>
         <v>0</v>
       </c>
-      <c r="R22" s="583"/>
+      <c r="R22" s="582"/>
       <c r="S22" s="171" t="s">
         <v>43</v>
       </c>
@@ -18583,7 +18570,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="601"/>
+      <c r="A23" s="600"/>
       <c r="B23" s="173" t="s">
         <v>44</v>
       </c>
@@ -18591,7 +18578,7 @@
         <f>+'MMW Output'!C28</f>
         <v>0</v>
       </c>
-      <c r="I23" s="583"/>
+      <c r="I23" s="582"/>
       <c r="J23" s="173" t="s">
         <v>44</v>
       </c>
@@ -18599,7 +18586,7 @@
         <f>+'MMW Output'!C28</f>
         <v>0</v>
       </c>
-      <c r="R23" s="583"/>
+      <c r="R23" s="582"/>
       <c r="S23" s="173" t="s">
         <v>44</v>
       </c>
@@ -18609,7 +18596,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="601"/>
+      <c r="A24" s="600"/>
       <c r="B24" s="171" t="s">
         <v>45</v>
       </c>
@@ -18617,7 +18604,7 @@
         <f>+'MMW Output'!C29</f>
         <v>0</v>
       </c>
-      <c r="I24" s="583"/>
+      <c r="I24" s="582"/>
       <c r="J24" s="171" t="s">
         <v>45</v>
       </c>
@@ -18625,7 +18612,7 @@
         <f>+'MMW Output'!C29</f>
         <v>0</v>
       </c>
-      <c r="R24" s="583"/>
+      <c r="R24" s="582"/>
       <c r="S24" s="171" t="s">
         <v>45</v>
       </c>
@@ -18635,7 +18622,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="601"/>
+      <c r="A25" s="600"/>
       <c r="B25" s="173" t="s">
         <v>46</v>
       </c>
@@ -18643,7 +18630,7 @@
         <f>+'MMW Output'!C30</f>
         <v>0</v>
       </c>
-      <c r="I25" s="583"/>
+      <c r="I25" s="582"/>
       <c r="J25" s="173" t="s">
         <v>46</v>
       </c>
@@ -18651,7 +18638,7 @@
         <f>+'MMW Output'!C30</f>
         <v>0</v>
       </c>
-      <c r="R25" s="583"/>
+      <c r="R25" s="582"/>
       <c r="S25" s="173" t="s">
         <v>46</v>
       </c>
@@ -18661,7 +18648,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="601"/>
+      <c r="A26" s="600"/>
       <c r="B26" s="171" t="s">
         <v>47</v>
       </c>
@@ -18669,7 +18656,7 @@
         <f>+'MMW Output'!C31</f>
         <v>0</v>
       </c>
-      <c r="I26" s="583"/>
+      <c r="I26" s="582"/>
       <c r="J26" s="171" t="s">
         <v>47</v>
       </c>
@@ -18677,7 +18664,7 @@
         <f>+'MMW Output'!C31</f>
         <v>0</v>
       </c>
-      <c r="R26" s="583"/>
+      <c r="R26" s="582"/>
       <c r="S26" s="171" t="s">
         <v>47</v>
       </c>
@@ -18687,7 +18674,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="601"/>
+      <c r="A27" s="600"/>
       <c r="B27" s="173" t="s">
         <v>48</v>
       </c>
@@ -18695,7 +18682,7 @@
         <f>+'MMW Output'!C32</f>
         <v>0</v>
       </c>
-      <c r="I27" s="583"/>
+      <c r="I27" s="582"/>
       <c r="J27" s="173" t="s">
         <v>48</v>
       </c>
@@ -18703,7 +18690,7 @@
         <f>+'MMW Output'!C32</f>
         <v>0</v>
       </c>
-      <c r="R27" s="583"/>
+      <c r="R27" s="582"/>
       <c r="S27" s="173" t="s">
         <v>48</v>
       </c>
@@ -18713,7 +18700,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="601"/>
+      <c r="A28" s="600"/>
       <c r="B28" s="171" t="s">
         <v>49</v>
       </c>
@@ -18721,7 +18708,7 @@
         <f>+'MMW Output'!C33</f>
         <v>0</v>
       </c>
-      <c r="I28" s="583"/>
+      <c r="I28" s="582"/>
       <c r="J28" s="171" t="s">
         <v>49</v>
       </c>
@@ -18729,7 +18716,7 @@
         <f>+'MMW Output'!C33</f>
         <v>0</v>
       </c>
-      <c r="R28" s="583"/>
+      <c r="R28" s="582"/>
       <c r="S28" s="171" t="s">
         <v>49</v>
       </c>
@@ -18739,7 +18726,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="601"/>
+      <c r="A29" s="600"/>
       <c r="B29" s="173" t="s">
         <v>50</v>
       </c>
@@ -18747,7 +18734,7 @@
         <f>+'MMW Output'!C34</f>
         <v>0</v>
       </c>
-      <c r="I29" s="583"/>
+      <c r="I29" s="582"/>
       <c r="J29" s="173" t="s">
         <v>50</v>
       </c>
@@ -18755,7 +18742,7 @@
         <f>+'MMW Output'!C34</f>
         <v>0</v>
       </c>
-      <c r="R29" s="583"/>
+      <c r="R29" s="582"/>
       <c r="S29" s="173" t="s">
         <v>50</v>
       </c>
@@ -18765,7 +18752,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="602"/>
+      <c r="A30" s="601"/>
       <c r="B30" s="175" t="s">
         <v>51</v>
       </c>
@@ -18773,7 +18760,7 @@
         <f>+'MMW Output'!C35</f>
         <v>0</v>
       </c>
-      <c r="I30" s="584"/>
+      <c r="I30" s="583"/>
       <c r="J30" s="175" t="s">
         <v>51</v>
       </c>
@@ -18781,7 +18768,7 @@
         <f>+'MMW Output'!C35</f>
         <v>0</v>
       </c>
-      <c r="R30" s="584"/>
+      <c r="R30" s="583"/>
       <c r="S30" s="175" t="s">
         <v>51</v>
       </c>
@@ -18819,36 +18806,36 @@
       </c>
     </row>
     <row r="34" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="580" t="s">
+      <c r="A34" s="579" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="580"/>
-      <c r="C34" s="580"/>
-      <c r="D34" s="580"/>
-      <c r="E34" s="580"/>
-      <c r="F34" s="580"/>
-      <c r="G34" s="580"/>
+      <c r="B34" s="579"/>
+      <c r="C34" s="579"/>
+      <c r="D34" s="579"/>
+      <c r="E34" s="579"/>
+      <c r="F34" s="579"/>
+      <c r="G34" s="579"/>
       <c r="H34" s="491"/>
-      <c r="I34" s="581" t="s">
-        <v>216</v>
-      </c>
-      <c r="J34" s="580"/>
-      <c r="K34" s="580"/>
-      <c r="L34" s="580"/>
-      <c r="M34" s="580"/>
-      <c r="N34" s="580"/>
-      <c r="O34" s="580"/>
+      <c r="I34" s="580" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="579"/>
+      <c r="K34" s="579"/>
+      <c r="L34" s="579"/>
+      <c r="M34" s="579"/>
+      <c r="N34" s="579"/>
+      <c r="O34" s="579"/>
       <c r="P34" s="491"/>
       <c r="Q34" s="491"/>
-      <c r="R34" s="581" t="s">
-        <v>238</v>
-      </c>
-      <c r="S34" s="580"/>
-      <c r="T34" s="580"/>
-      <c r="U34" s="580"/>
-      <c r="V34" s="580"/>
-      <c r="W34" s="580"/>
-      <c r="X34" s="580"/>
+      <c r="R34" s="580" t="s">
+        <v>234</v>
+      </c>
+      <c r="S34" s="579"/>
+      <c r="T34" s="579"/>
+      <c r="U34" s="579"/>
+      <c r="V34" s="579"/>
+      <c r="W34" s="579"/>
+      <c r="X34" s="579"/>
       <c r="Y34" s="492"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -18870,12 +18857,12 @@
       <c r="D36" s="166"/>
       <c r="J36" s="165"/>
       <c r="K36" s="166" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L36" s="166"/>
       <c r="S36" s="165"/>
       <c r="T36" s="166" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="U36" s="166"/>
     </row>
@@ -18935,39 +18922,39 @@
       <c r="U39" s="142"/>
     </row>
     <row r="40" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="580" t="str">
+      <c r="A40" s="579" t="str">
         <f>CONCATENATE("Step 3. Sum the total acres in the ", 'MMW Output'!C13," watershed.")</f>
         <v>Step 3. Sum the total acres in the User Specified watershed.</v>
       </c>
-      <c r="B40" s="580"/>
-      <c r="C40" s="580"/>
-      <c r="D40" s="580"/>
-      <c r="E40" s="580"/>
-      <c r="F40" s="580"/>
-      <c r="G40" s="580"/>
+      <c r="B40" s="579"/>
+      <c r="C40" s="579"/>
+      <c r="D40" s="579"/>
+      <c r="E40" s="579"/>
+      <c r="F40" s="579"/>
+      <c r="G40" s="579"/>
       <c r="H40" s="491"/>
-      <c r="I40" s="581" t="str">
+      <c r="I40" s="580" t="str">
         <f>CONCATENATE("Step 3. Sum the total acres in the ", 'MMW Output'!C13," watershed.")</f>
         <v>Step 3. Sum the total acres in the User Specified watershed.</v>
       </c>
-      <c r="J40" s="580"/>
-      <c r="K40" s="580"/>
-      <c r="L40" s="580"/>
-      <c r="M40" s="580"/>
-      <c r="N40" s="580"/>
-      <c r="O40" s="580"/>
+      <c r="J40" s="579"/>
+      <c r="K40" s="579"/>
+      <c r="L40" s="579"/>
+      <c r="M40" s="579"/>
+      <c r="N40" s="579"/>
+      <c r="O40" s="579"/>
       <c r="P40" s="491"/>
       <c r="Q40" s="491"/>
-      <c r="R40" s="581" t="str">
+      <c r="R40" s="580" t="str">
         <f>CONCATENATE("Step 3. Sum the total acres in the ", 'MMW Output'!C13," watershed.")</f>
         <v>Step 3. Sum the total acres in the User Specified watershed.</v>
       </c>
-      <c r="S40" s="580"/>
-      <c r="T40" s="580"/>
-      <c r="U40" s="580"/>
-      <c r="V40" s="580"/>
-      <c r="W40" s="580"/>
-      <c r="X40" s="580"/>
+      <c r="S40" s="579"/>
+      <c r="T40" s="579"/>
+      <c r="U40" s="579"/>
+      <c r="V40" s="579"/>
+      <c r="W40" s="579"/>
+      <c r="X40" s="579"/>
       <c r="Y40" s="492"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -19048,36 +19035,36 @@
       <c r="U44" s="142"/>
     </row>
     <row r="45" spans="1:25" s="493" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="580" t="s">
+      <c r="A45" s="579" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="580"/>
-      <c r="C45" s="580"/>
-      <c r="D45" s="580"/>
-      <c r="E45" s="580"/>
-      <c r="F45" s="580"/>
-      <c r="G45" s="580"/>
+      <c r="B45" s="579"/>
+      <c r="C45" s="579"/>
+      <c r="D45" s="579"/>
+      <c r="E45" s="579"/>
+      <c r="F45" s="579"/>
+      <c r="G45" s="579"/>
       <c r="H45" s="491"/>
-      <c r="I45" s="581" t="s">
-        <v>218</v>
-      </c>
-      <c r="J45" s="580"/>
-      <c r="K45" s="580"/>
-      <c r="L45" s="580"/>
-      <c r="M45" s="580"/>
-      <c r="N45" s="580"/>
-      <c r="O45" s="580"/>
+      <c r="I45" s="580" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="579"/>
+      <c r="K45" s="579"/>
+      <c r="L45" s="579"/>
+      <c r="M45" s="579"/>
+      <c r="N45" s="579"/>
+      <c r="O45" s="579"/>
       <c r="P45" s="491"/>
       <c r="Q45" s="491"/>
-      <c r="R45" s="581" t="s">
-        <v>218</v>
-      </c>
-      <c r="S45" s="580"/>
-      <c r="T45" s="580"/>
-      <c r="U45" s="580"/>
-      <c r="V45" s="580"/>
-      <c r="W45" s="580"/>
-      <c r="X45" s="580"/>
+      <c r="R45" s="580" t="s">
+        <v>216</v>
+      </c>
+      <c r="S45" s="579"/>
+      <c r="T45" s="579"/>
+      <c r="U45" s="579"/>
+      <c r="V45" s="579"/>
+      <c r="W45" s="579"/>
+      <c r="X45" s="579"/>
       <c r="Y45" s="492"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
@@ -19309,63 +19296,63 @@
       </c>
     </row>
     <row r="54" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="580" t="s">
+      <c r="A54" s="579" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="580"/>
-      <c r="C54" s="580"/>
-      <c r="D54" s="580"/>
-      <c r="E54" s="580"/>
-      <c r="F54" s="580"/>
-      <c r="G54" s="580"/>
+      <c r="B54" s="579"/>
+      <c r="C54" s="579"/>
+      <c r="D54" s="579"/>
+      <c r="E54" s="579"/>
+      <c r="F54" s="579"/>
+      <c r="G54" s="579"/>
       <c r="H54" s="491"/>
-      <c r="I54" s="581" t="s">
-        <v>219</v>
-      </c>
-      <c r="J54" s="580"/>
-      <c r="K54" s="580"/>
-      <c r="L54" s="580"/>
-      <c r="M54" s="580"/>
-      <c r="N54" s="580"/>
-      <c r="O54" s="580"/>
+      <c r="I54" s="580" t="s">
+        <v>217</v>
+      </c>
+      <c r="J54" s="579"/>
+      <c r="K54" s="579"/>
+      <c r="L54" s="579"/>
+      <c r="M54" s="579"/>
+      <c r="N54" s="579"/>
+      <c r="O54" s="579"/>
       <c r="P54" s="491"/>
       <c r="Q54" s="491"/>
-      <c r="R54" s="581" t="s">
-        <v>240</v>
-      </c>
-      <c r="S54" s="580"/>
-      <c r="T54" s="580"/>
-      <c r="U54" s="580"/>
-      <c r="V54" s="580"/>
-      <c r="W54" s="580"/>
-      <c r="X54" s="580"/>
+      <c r="R54" s="580" t="s">
+        <v>236</v>
+      </c>
+      <c r="S54" s="579"/>
+      <c r="T54" s="579"/>
+      <c r="U54" s="579"/>
+      <c r="V54" s="579"/>
+      <c r="W54" s="579"/>
+      <c r="X54" s="579"/>
       <c r="Y54" s="492"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B55" s="91" t="s">
-        <v>166</v>
+        <v>599</v>
       </c>
       <c r="J55" s="91" t="s">
-        <v>220</v>
+        <v>601</v>
       </c>
       <c r="S55" s="91" t="s">
-        <v>241</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B56" s="91" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="J56" s="91" t="s">
-        <v>221</v>
+        <v>602</v>
       </c>
       <c r="S56" s="91" t="s">
-        <v>242</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B58" s="91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C58" s="198">
         <f>C37</f>
@@ -19375,10 +19362,10 @@
         <v>133</v>
       </c>
       <c r="E58" s="163" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J58" s="91" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K58" s="198">
         <f>K37</f>
@@ -19388,10 +19375,10 @@
         <v>133</v>
       </c>
       <c r="M58" s="163" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S58" s="91" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T58" s="198">
         <f>T37</f>
@@ -19401,12 +19388,12 @@
         <v>133</v>
       </c>
       <c r="V58" s="163" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B59" s="91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C59" s="199">
         <f>+C51</f>
@@ -19416,10 +19403,10 @@
         <v>81</v>
       </c>
       <c r="E59" s="163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J59" s="91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K59" s="199">
         <f>+K51</f>
@@ -19429,10 +19416,10 @@
         <v>81</v>
       </c>
       <c r="M59" s="163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S59" s="91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T59" s="199">
         <f>+T51</f>
@@ -19442,7 +19429,7 @@
         <v>81</v>
       </c>
       <c r="V59" s="163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
@@ -19457,7 +19444,7 @@
         <v>81</v>
       </c>
       <c r="E60" s="163" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J60" s="91" t="s">
         <v>153</v>
@@ -19470,7 +19457,7 @@
         <v>81</v>
       </c>
       <c r="M60" s="163" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S60" s="91" t="s">
         <v>153</v>
@@ -19483,47 +19470,47 @@
         <v>81</v>
       </c>
       <c r="V60" s="163" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B61" s="200" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C61" s="201" t="e">
         <f>+C59/C60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="163" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E61" s="91" t="str">
         <f>CONCATENATE("[ ",ROUND(C59,2)," acres / ",ROUND(C60,2)," acres ]")</f>
         <v>[ 0 acres / 0 acres ]</v>
       </c>
       <c r="J61" s="200" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K61" s="201" t="e">
         <f>+K59/K60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="163" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M61" s="91" t="str">
         <f>CONCATENATE("[ ",ROUND(K59,2)," acres / ",ROUND(K60,2)," acres ]")</f>
         <v>[ 0 acres / 0 acres ]</v>
       </c>
       <c r="S61" s="200" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T61" s="201" t="e">
         <f>+T59/T60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U61" s="163" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V61" s="91" t="str">
         <f>CONCATENATE("[ ",ROUND(T59,2)," acres / ",ROUND(T60,2)," acres ]")</f>
@@ -19552,14 +19539,14 @@
     <row r="63" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="202"/>
       <c r="B63" s="124" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C63" s="203" t="e">
         <f>+C58*(C51/C60)*0.75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E63" s="91" t="e">
         <f>CONCATENATE("[ 75% x ",ROUND(C58,2)," pounds x ",ROUND(C61*100,0),"% ]")</f>
@@ -19567,14 +19554,14 @@
       </c>
       <c r="I63" s="489"/>
       <c r="J63" s="124" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K63" s="203" t="e">
         <f>+K58*K61*0.75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M63" s="91" t="e">
         <f>CONCATENATE("[ 75% x ",ROUND(K58,2)," pounds x ",ROUND(K61*100,0),"% ]")</f>
@@ -19582,14 +19569,14 @@
       </c>
       <c r="R63" s="489"/>
       <c r="S63" s="124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="T63" s="203" t="e">
         <f>+T58*T61*0.75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U63" s="91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V63" s="91" t="e">
         <f>CONCATENATE("[ 75% x ",ROUND(T58,2)," pounds x ",ROUND(T61*100,0),"% ]")</f>
@@ -19599,14 +19586,14 @@
     <row r="64" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="202"/>
       <c r="B64" s="204" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" s="205">
         <f>+C58*0.25</f>
         <v>0</v>
       </c>
       <c r="D64" s="206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E64" s="91" t="str">
         <f>CONCATENATE("[ 25% x ",ROUND(C58,2)," pounds ]")</f>
@@ -19614,14 +19601,14 @@
       </c>
       <c r="I64" s="489"/>
       <c r="J64" s="204" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K64" s="205">
         <f>+K58*0.25</f>
         <v>0</v>
       </c>
       <c r="L64" s="206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M64" s="91" t="str">
         <f>CONCATENATE("[ 25% x ",ROUND(K58,2)," pounds ]")</f>
@@ -19629,14 +19616,14 @@
       </c>
       <c r="R64" s="489"/>
       <c r="S64" s="204" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T64" s="205">
         <f>+T58*0.25</f>
         <v>0</v>
       </c>
       <c r="U64" s="206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V64" s="91" t="str">
         <f>CONCATENATE("[ 25% x ",ROUND(T58,2)," pounds ]")</f>
@@ -19645,7 +19632,7 @@
     </row>
     <row r="65" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B65" s="207" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C65" s="208" t="e">
         <f>+C64+C63</f>
@@ -19655,7 +19642,7 @@
         <v>133</v>
       </c>
       <c r="J65" s="207" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K65" s="208" t="e">
         <f>+K64+K63</f>
@@ -19667,7 +19654,7 @@
       <c r="P65" s="124"/>
       <c r="Q65" s="124"/>
       <c r="S65" s="207" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T65" s="208" t="e">
         <f>+T64+T63</f>
@@ -19678,47 +19665,47 @@
       </c>
     </row>
     <row r="68" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="580" t="s">
-        <v>179</v>
-      </c>
-      <c r="B68" s="580"/>
-      <c r="C68" s="580"/>
-      <c r="D68" s="580"/>
-      <c r="E68" s="580"/>
-      <c r="F68" s="580"/>
-      <c r="G68" s="580"/>
+      <c r="A68" s="579" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="579"/>
+      <c r="C68" s="579"/>
+      <c r="D68" s="579"/>
+      <c r="E68" s="579"/>
+      <c r="F68" s="579"/>
+      <c r="G68" s="579"/>
       <c r="H68" s="491"/>
-      <c r="I68" s="581" t="s">
-        <v>225</v>
-      </c>
-      <c r="J68" s="580"/>
-      <c r="K68" s="580"/>
-      <c r="L68" s="580"/>
-      <c r="M68" s="580"/>
-      <c r="N68" s="580"/>
-      <c r="O68" s="580"/>
+      <c r="I68" s="580" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="579"/>
+      <c r="K68" s="579"/>
+      <c r="L68" s="579"/>
+      <c r="M68" s="579"/>
+      <c r="N68" s="579"/>
+      <c r="O68" s="579"/>
       <c r="P68" s="491"/>
       <c r="Q68" s="491"/>
-      <c r="R68" s="581" t="s">
-        <v>246</v>
-      </c>
-      <c r="S68" s="580"/>
-      <c r="T68" s="580"/>
-      <c r="U68" s="580"/>
-      <c r="V68" s="580"/>
-      <c r="W68" s="580"/>
-      <c r="X68" s="580"/>
+      <c r="R68" s="580" t="s">
+        <v>240</v>
+      </c>
+      <c r="S68" s="579"/>
+      <c r="T68" s="579"/>
+      <c r="U68" s="579"/>
+      <c r="V68" s="579"/>
+      <c r="W68" s="579"/>
+      <c r="X68" s="579"/>
       <c r="Y68" s="492"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B70" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J70" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S70" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
@@ -19748,21 +19735,21 @@
       <c r="B72" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="550">
+      <c r="C72" s="210">
         <f>+TechDocs!E17</f>
         <v>0.52</v>
       </c>
       <c r="J72" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="K72" s="550">
+      <c r="K72" s="210">
         <f>+TechDocs!E17</f>
         <v>0.52</v>
       </c>
       <c r="S72" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="T72" s="550">
+      <c r="T72" s="210">
         <f>+TechDocs!E17</f>
         <v>0.52</v>
       </c>
@@ -19791,47 +19778,47 @@
       </c>
     </row>
     <row r="76" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="580" t="s">
-        <v>181</v>
-      </c>
-      <c r="B76" s="580"/>
-      <c r="C76" s="580"/>
-      <c r="D76" s="580"/>
-      <c r="E76" s="580"/>
-      <c r="F76" s="580"/>
-      <c r="G76" s="580"/>
+      <c r="A76" s="579" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="579"/>
+      <c r="C76" s="579"/>
+      <c r="D76" s="579"/>
+      <c r="E76" s="579"/>
+      <c r="F76" s="579"/>
+      <c r="G76" s="579"/>
       <c r="H76" s="491"/>
-      <c r="I76" s="581" t="s">
-        <v>181</v>
-      </c>
-      <c r="J76" s="580"/>
-      <c r="K76" s="580"/>
-      <c r="L76" s="580"/>
-      <c r="M76" s="580"/>
-      <c r="N76" s="580"/>
-      <c r="O76" s="580"/>
+      <c r="I76" s="580" t="s">
+        <v>179</v>
+      </c>
+      <c r="J76" s="579"/>
+      <c r="K76" s="579"/>
+      <c r="L76" s="579"/>
+      <c r="M76" s="579"/>
+      <c r="N76" s="579"/>
+      <c r="O76" s="579"/>
       <c r="P76" s="491"/>
       <c r="Q76" s="491"/>
-      <c r="R76" s="581" t="s">
-        <v>181</v>
-      </c>
-      <c r="S76" s="580"/>
-      <c r="T76" s="580"/>
-      <c r="U76" s="580"/>
-      <c r="V76" s="580"/>
-      <c r="W76" s="580"/>
-      <c r="X76" s="580"/>
+      <c r="R76" s="580" t="s">
+        <v>179</v>
+      </c>
+      <c r="S76" s="579"/>
+      <c r="T76" s="579"/>
+      <c r="U76" s="579"/>
+      <c r="V76" s="579"/>
+      <c r="W76" s="579"/>
+      <c r="X76" s="579"/>
       <c r="Y76" s="492"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B78" s="94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J78" s="94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S78" s="94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
@@ -19843,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E79" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(C48,2)," acres x ",C71*100," percent ]")</f>
@@ -19859,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M79" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(K48,2)," acres x ",K71*100," percent ]")</f>
@@ -19875,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V79" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(T48,2)," acres x ",T71*100," percent ]")</f>
@@ -19893,7 +19880,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E80" s="215" t="str">
         <f>CONCATENATE(" [ ",ROUND(C49,2)," acres x ",C72*100," percent ]")</f>
@@ -19909,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M80" s="215" t="str">
         <f>CONCATENATE(" [ ",ROUND(K49,2)," acres x ",K72*100," percent ]")</f>
@@ -19925,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V80" s="215" t="str">
         <f>CONCATENATE(" [ ",ROUND(T49,2)," acres x ",T72*100," percent ]")</f>
@@ -19943,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="217" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E81" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(C50,2)," acres x ",C73*100," percent ]")</f>
@@ -19959,7 +19946,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="217" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M81" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(K50,2)," acres x ",K73*100," percent ]")</f>
@@ -19975,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="217" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V81" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(T50,2)," acres x ",T73*100," percent ]")</f>
@@ -19986,7 +19973,7 @@
     </row>
     <row r="82" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B82" s="218" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C82" s="219">
         <f>+C79+C80+C81</f>
@@ -19996,7 +19983,7 @@
         <v>81</v>
       </c>
       <c r="J82" s="218" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K82" s="219">
         <f>+K79+K80+K81</f>
@@ -20006,7 +19993,7 @@
         <v>81</v>
       </c>
       <c r="S82" s="218" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T82" s="219">
         <f>+T79+T80+T81</f>
@@ -20017,47 +20004,47 @@
       </c>
     </row>
     <row r="85" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="580" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" s="580"/>
-      <c r="C85" s="580"/>
-      <c r="D85" s="580"/>
-      <c r="E85" s="580"/>
-      <c r="F85" s="580"/>
-      <c r="G85" s="580"/>
+      <c r="A85" s="579" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="579"/>
+      <c r="C85" s="579"/>
+      <c r="D85" s="579"/>
+      <c r="E85" s="579"/>
+      <c r="F85" s="579"/>
+      <c r="G85" s="579"/>
       <c r="H85" s="491"/>
-      <c r="I85" s="581" t="s">
-        <v>185</v>
-      </c>
-      <c r="J85" s="580"/>
-      <c r="K85" s="580"/>
-      <c r="L85" s="580"/>
-      <c r="M85" s="580"/>
-      <c r="N85" s="580"/>
-      <c r="O85" s="580"/>
+      <c r="I85" s="580" t="s">
+        <v>183</v>
+      </c>
+      <c r="J85" s="579"/>
+      <c r="K85" s="579"/>
+      <c r="L85" s="579"/>
+      <c r="M85" s="579"/>
+      <c r="N85" s="579"/>
+      <c r="O85" s="579"/>
       <c r="P85" s="491"/>
       <c r="Q85" s="491"/>
-      <c r="R85" s="581" t="s">
-        <v>185</v>
-      </c>
-      <c r="S85" s="580"/>
-      <c r="T85" s="580"/>
-      <c r="U85" s="580"/>
-      <c r="V85" s="580"/>
-      <c r="W85" s="580"/>
-      <c r="X85" s="580"/>
+      <c r="R85" s="580" t="s">
+        <v>183</v>
+      </c>
+      <c r="S85" s="579"/>
+      <c r="T85" s="579"/>
+      <c r="U85" s="579"/>
+      <c r="V85" s="579"/>
+      <c r="W85" s="579"/>
+      <c r="X85" s="579"/>
       <c r="Y85" s="492"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B87" s="94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J87" s="94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S87" s="94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
@@ -20069,7 +20056,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D88" s="220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E88" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(C79,2)," acres / ",ROUND(C82,2)," acres ]")</f>
@@ -20085,7 +20072,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L88" s="220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M88" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(K79,2)," acres / ",ROUND(K82,2)," acres ]")</f>
@@ -20101,7 +20088,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U88" s="220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V88" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(T79,2)," acres / ",ROUND(T82,2)," acres ]")</f>
@@ -20119,7 +20106,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D89" s="221" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E89" s="215" t="str">
         <f>CONCATENATE(" [ ",ROUND(C80,2)," acres / ",ROUND(C82,2)," acres ]")</f>
@@ -20135,7 +20122,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L89" s="221" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M89" s="215" t="str">
         <f>CONCATENATE(" [ ",ROUND(K80,2)," acres / ",ROUND(K82,2)," acres ]")</f>
@@ -20151,7 +20138,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U89" s="221" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V89" s="215" t="str">
         <f>CONCATENATE(" [ ",ROUND(T80,2)," acres / ",ROUND(T82,2)," acres ]")</f>
@@ -20169,7 +20156,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D90" s="220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E90" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(C81,2)," acres / ",ROUND(C82,2)," acres ]")</f>
@@ -20185,7 +20172,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L90" s="220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M90" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(K81,2)," acres / ",ROUND(K82,2)," acres ]")</f>
@@ -20201,7 +20188,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U90" s="220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V90" s="213" t="str">
         <f>CONCATENATE(" [ ",ROUND(T81,2)," acres / ",ROUND(T82,2)," acres ]")</f>
@@ -20234,225 +20221,225 @@
       </c>
     </row>
     <row r="94" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="580" t="s">
-        <v>188</v>
-      </c>
-      <c r="B94" s="580"/>
-      <c r="C94" s="580"/>
-      <c r="D94" s="580"/>
-      <c r="E94" s="580"/>
-      <c r="F94" s="580"/>
-      <c r="G94" s="580"/>
+      <c r="A94" s="579" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="579"/>
+      <c r="C94" s="579"/>
+      <c r="D94" s="579"/>
+      <c r="E94" s="579"/>
+      <c r="F94" s="579"/>
+      <c r="G94" s="579"/>
       <c r="H94" s="491"/>
-      <c r="I94" s="581" t="s">
-        <v>226</v>
-      </c>
-      <c r="J94" s="580"/>
-      <c r="K94" s="580"/>
-      <c r="L94" s="580"/>
-      <c r="M94" s="580"/>
-      <c r="N94" s="580"/>
-      <c r="O94" s="580"/>
+      <c r="I94" s="580" t="s">
+        <v>222</v>
+      </c>
+      <c r="J94" s="579"/>
+      <c r="K94" s="579"/>
+      <c r="L94" s="579"/>
+      <c r="M94" s="579"/>
+      <c r="N94" s="579"/>
+      <c r="O94" s="579"/>
       <c r="P94" s="491"/>
       <c r="Q94" s="491"/>
-      <c r="R94" s="581" t="s">
-        <v>247</v>
-      </c>
-      <c r="S94" s="580"/>
-      <c r="T94" s="580"/>
-      <c r="U94" s="580"/>
-      <c r="V94" s="580"/>
-      <c r="W94" s="580"/>
-      <c r="X94" s="580"/>
+      <c r="R94" s="580" t="s">
+        <v>241</v>
+      </c>
+      <c r="S94" s="579"/>
+      <c r="T94" s="579"/>
+      <c r="U94" s="579"/>
+      <c r="V94" s="579"/>
+      <c r="W94" s="579"/>
+      <c r="X94" s="579"/>
       <c r="Y94" s="492"/>
     </row>
     <row r="96" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B96" s="224" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C96" s="112" t="e">
         <f>+C65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D96" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E96" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J96" s="224" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K96" s="112" t="e">
         <f>+K65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L96" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M96" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S96" s="224" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T96" s="112" t="e">
         <f>+T65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U96" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V96" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B97" s="179" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C97" s="203" t="e">
         <f>+C63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D97" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E97" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J97" s="179" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K97" s="203" t="e">
         <f>+K63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L97" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="M97" s="163" t="s">
+        <v>188</v>
+      </c>
+      <c r="S97" s="179" t="s">
         <v>189</v>
-      </c>
-      <c r="M97" s="163" t="s">
-        <v>190</v>
-      </c>
-      <c r="S97" s="179" t="s">
-        <v>191</v>
       </c>
       <c r="T97" s="203" t="e">
         <f>+T63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U97" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V97" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B98" s="179" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C98" s="203">
         <f>+C64</f>
         <v>0</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E98" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J98" s="179" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K98" s="203">
         <f>+K64</f>
         <v>0</v>
       </c>
       <c r="L98" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M98" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S98" s="179" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="T98" s="203">
         <f>+T64</f>
         <v>0</v>
       </c>
       <c r="U98" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V98" s="163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="580" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="580"/>
-      <c r="C101" s="580"/>
-      <c r="D101" s="580"/>
-      <c r="E101" s="580"/>
-      <c r="F101" s="580"/>
-      <c r="G101" s="580"/>
+      <c r="A101" s="579" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="579"/>
+      <c r="C101" s="579"/>
+      <c r="D101" s="579"/>
+      <c r="E101" s="579"/>
+      <c r="F101" s="579"/>
+      <c r="G101" s="579"/>
       <c r="H101" s="491"/>
-      <c r="I101" s="581" t="s">
-        <v>193</v>
-      </c>
-      <c r="J101" s="580"/>
-      <c r="K101" s="580"/>
-      <c r="L101" s="580"/>
-      <c r="M101" s="580"/>
-      <c r="N101" s="580"/>
-      <c r="O101" s="580"/>
+      <c r="I101" s="580" t="s">
+        <v>191</v>
+      </c>
+      <c r="J101" s="579"/>
+      <c r="K101" s="579"/>
+      <c r="L101" s="579"/>
+      <c r="M101" s="579"/>
+      <c r="N101" s="579"/>
+      <c r="O101" s="579"/>
       <c r="P101" s="491"/>
       <c r="Q101" s="491"/>
-      <c r="R101" s="581" t="s">
-        <v>193</v>
-      </c>
-      <c r="S101" s="580"/>
-      <c r="T101" s="580"/>
-      <c r="U101" s="580"/>
-      <c r="V101" s="580"/>
-      <c r="W101" s="580"/>
-      <c r="X101" s="580"/>
+      <c r="R101" s="580" t="s">
+        <v>191</v>
+      </c>
+      <c r="S101" s="579"/>
+      <c r="T101" s="579"/>
+      <c r="U101" s="579"/>
+      <c r="V101" s="579"/>
+      <c r="W101" s="579"/>
+      <c r="X101" s="579"/>
       <c r="Y101" s="492"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A102" s="572" t="str">
+      <c r="A102" s="571" t="str">
         <f>CONCATENATE("multiplying the 'Percent of Total Impervious Surfaces' (Step 8) by ",ROUND(C98,2)," pounds (calculated in Step 9):")</f>
         <v>multiplying the 'Percent of Total Impervious Surfaces' (Step 8) by 0 pounds (calculated in Step 9):</v>
       </c>
-      <c r="B102" s="572"/>
-      <c r="C102" s="572"/>
-      <c r="D102" s="572"/>
-      <c r="E102" s="572"/>
-      <c r="F102" s="572"/>
-      <c r="G102" s="572"/>
-      <c r="I102" s="572" t="str">
+      <c r="B102" s="571"/>
+      <c r="C102" s="571"/>
+      <c r="D102" s="571"/>
+      <c r="E102" s="571"/>
+      <c r="F102" s="571"/>
+      <c r="G102" s="571"/>
+      <c r="I102" s="571" t="str">
         <f>CONCATENATE("multiplying the 'Percent of Total Impervious Surfaces' (Step 8) by ",ROUND(K98,2)," pounds (calculated in Step 9):")</f>
         <v>multiplying the 'Percent of Total Impervious Surfaces' (Step 8) by 0 pounds (calculated in Step 9):</v>
       </c>
-      <c r="J102" s="572"/>
-      <c r="K102" s="572"/>
-      <c r="L102" s="572"/>
-      <c r="M102" s="572"/>
-      <c r="N102" s="572"/>
-      <c r="O102" s="572"/>
-      <c r="R102" s="572" t="str">
+      <c r="J102" s="571"/>
+      <c r="K102" s="571"/>
+      <c r="L102" s="571"/>
+      <c r="M102" s="571"/>
+      <c r="N102" s="571"/>
+      <c r="O102" s="571"/>
+      <c r="R102" s="571" t="str">
         <f>CONCATENATE("multiplying the 'Percent of Total Impervious Surfaces' (Step 8) by ",ROUND(T98,2)," pounds (calculated in Step 9):")</f>
         <v>multiplying the 'Percent of Total Impervious Surfaces' (Step 8) by 0 pounds (calculated in Step 9):</v>
       </c>
-      <c r="S102" s="572"/>
-      <c r="T102" s="572"/>
-      <c r="U102" s="572"/>
-      <c r="V102" s="572"/>
-      <c r="W102" s="572"/>
-      <c r="X102" s="572"/>
+      <c r="S102" s="571"/>
+      <c r="T102" s="571"/>
+      <c r="U102" s="571"/>
+      <c r="V102" s="571"/>
+      <c r="W102" s="571"/>
+      <c r="X102" s="571"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="179"/>
@@ -20479,21 +20466,21 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B104" s="94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C104" s="218"/>
       <c r="D104" s="218"/>
       <c r="E104" s="218"/>
       <c r="F104" s="124"/>
       <c r="J104" s="94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K104" s="218"/>
       <c r="L104" s="218"/>
       <c r="M104" s="218"/>
       <c r="N104" s="124"/>
       <c r="S104" s="94" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="T104" s="218"/>
       <c r="U104" s="218"/>
@@ -20508,13 +20495,13 @@
         <f>C88*C$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D105" s="585" t="e">
+      <c r="D105" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(C88*100,0)," % x ",ROUND(C$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E105" s="586"/>
-      <c r="F105" s="586"/>
-      <c r="G105" s="586"/>
+      <c r="E105" s="585"/>
+      <c r="F105" s="585"/>
+      <c r="G105" s="585"/>
       <c r="J105" s="182" t="s">
         <v>157</v>
       </c>
@@ -20522,13 +20509,13 @@
         <f>K88*K$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L105" s="585" t="e">
+      <c r="L105" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(K88*100,0)," % x ",ROUND(K$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M105" s="586"/>
-      <c r="N105" s="586"/>
-      <c r="O105" s="586"/>
+      <c r="M105" s="585"/>
+      <c r="N105" s="585"/>
+      <c r="O105" s="585"/>
       <c r="S105" s="182" t="s">
         <v>157</v>
       </c>
@@ -20536,13 +20523,13 @@
         <f>T88*T$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U105" s="585" t="e">
+      <c r="U105" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(T88*100,0)," % x ",ROUND(T$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V105" s="586"/>
-      <c r="W105" s="586"/>
-      <c r="X105" s="586"/>
+      <c r="V105" s="585"/>
+      <c r="W105" s="585"/>
+      <c r="X105" s="585"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B106" s="187" t="s">
@@ -20552,13 +20539,13 @@
         <f>C89*C$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D106" s="587" t="e">
+      <c r="D106" s="586" t="e">
         <f>CONCATENATE("=   [ ",ROUND(C89*100,0)," % x ",ROUND(C$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E106" s="588"/>
-      <c r="F106" s="588"/>
-      <c r="G106" s="588"/>
+      <c r="E106" s="587"/>
+      <c r="F106" s="587"/>
+      <c r="G106" s="587"/>
       <c r="J106" s="187" t="s">
         <v>159</v>
       </c>
@@ -20566,13 +20553,13 @@
         <f>K89*K$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L106" s="587" t="e">
+      <c r="L106" s="586" t="e">
         <f>CONCATENATE("=   [ ",ROUND(K89*100,0)," % x ",ROUND(K$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M106" s="588"/>
-      <c r="N106" s="588"/>
-      <c r="O106" s="588"/>
+      <c r="M106" s="587"/>
+      <c r="N106" s="587"/>
+      <c r="O106" s="587"/>
       <c r="S106" s="187" t="s">
         <v>159</v>
       </c>
@@ -20580,13 +20567,13 @@
         <f>T89*T$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U106" s="587" t="e">
+      <c r="U106" s="586" t="e">
         <f>CONCATENATE("=   [ ",ROUND(T89*100,0)," % x ",ROUND(T$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V106" s="588"/>
-      <c r="W106" s="588"/>
-      <c r="X106" s="588"/>
+      <c r="V106" s="587"/>
+      <c r="W106" s="587"/>
+      <c r="X106" s="587"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B107" s="182" t="s">
@@ -20596,13 +20583,13 @@
         <f>C90*C$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D107" s="585" t="e">
+      <c r="D107" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(C90*100,0)," % x ",ROUND(C$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E107" s="586"/>
-      <c r="F107" s="586"/>
-      <c r="G107" s="586"/>
+      <c r="E107" s="585"/>
+      <c r="F107" s="585"/>
+      <c r="G107" s="585"/>
       <c r="J107" s="182" t="s">
         <v>161</v>
       </c>
@@ -20610,13 +20597,13 @@
         <f>K90*K$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L107" s="585" t="e">
+      <c r="L107" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(K90*100,0)," % x ",ROUND(K$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M107" s="586"/>
-      <c r="N107" s="586"/>
-      <c r="O107" s="586"/>
+      <c r="M107" s="585"/>
+      <c r="N107" s="585"/>
+      <c r="O107" s="585"/>
       <c r="S107" s="182" t="s">
         <v>161</v>
       </c>
@@ -20624,13 +20611,13 @@
         <f>T90*T$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U107" s="585" t="e">
+      <c r="U107" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(T90*100,0)," % x ",ROUND(T$98,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V107" s="586"/>
-      <c r="W107" s="586"/>
-      <c r="X107" s="586"/>
+      <c r="V107" s="585"/>
+      <c r="W107" s="585"/>
+      <c r="X107" s="585"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C108" s="226"/>
@@ -20638,85 +20625,85 @@
       <c r="T108" s="226"/>
     </row>
     <row r="110" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="580" t="s">
-        <v>195</v>
-      </c>
-      <c r="B110" s="580"/>
-      <c r="C110" s="580"/>
-      <c r="D110" s="580"/>
-      <c r="E110" s="580"/>
-      <c r="F110" s="580"/>
-      <c r="G110" s="580"/>
+      <c r="A110" s="579" t="s">
+        <v>193</v>
+      </c>
+      <c r="B110" s="579"/>
+      <c r="C110" s="579"/>
+      <c r="D110" s="579"/>
+      <c r="E110" s="579"/>
+      <c r="F110" s="579"/>
+      <c r="G110" s="579"/>
       <c r="H110" s="491"/>
-      <c r="I110" s="581" t="s">
-        <v>195</v>
-      </c>
-      <c r="J110" s="580"/>
-      <c r="K110" s="580"/>
-      <c r="L110" s="580"/>
-      <c r="M110" s="580"/>
-      <c r="N110" s="580"/>
-      <c r="O110" s="580"/>
+      <c r="I110" s="580" t="s">
+        <v>193</v>
+      </c>
+      <c r="J110" s="579"/>
+      <c r="K110" s="579"/>
+      <c r="L110" s="579"/>
+      <c r="M110" s="579"/>
+      <c r="N110" s="579"/>
+      <c r="O110" s="579"/>
       <c r="P110" s="491"/>
       <c r="Q110" s="491"/>
-      <c r="R110" s="581" t="s">
-        <v>195</v>
-      </c>
-      <c r="S110" s="580"/>
-      <c r="T110" s="580"/>
-      <c r="U110" s="580"/>
-      <c r="V110" s="580"/>
-      <c r="W110" s="580"/>
-      <c r="X110" s="580"/>
+      <c r="R110" s="580" t="s">
+        <v>193</v>
+      </c>
+      <c r="S110" s="579"/>
+      <c r="T110" s="579"/>
+      <c r="U110" s="579"/>
+      <c r="V110" s="579"/>
+      <c r="W110" s="579"/>
+      <c r="X110" s="579"/>
       <c r="Y110" s="492"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A111" s="572" t="e">
+      <c r="A111" s="571" t="e">
         <f>CONCATENATE("the 'Percent of Area of Developed Lands' (from Step 4) by ",ROUND(C97,2)," pounds (calculated in Step 9):")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B111" s="572"/>
-      <c r="C111" s="572"/>
-      <c r="D111" s="572"/>
-      <c r="E111" s="572"/>
-      <c r="F111" s="572"/>
-      <c r="G111" s="572"/>
-      <c r="I111" s="572" t="e">
+      <c r="B111" s="571"/>
+      <c r="C111" s="571"/>
+      <c r="D111" s="571"/>
+      <c r="E111" s="571"/>
+      <c r="F111" s="571"/>
+      <c r="G111" s="571"/>
+      <c r="I111" s="571" t="e">
         <f>CONCATENATE("the 'Percent of Area of Developed Lands' (from Step 4) by ",ROUND(K97,2)," pounds (calculated in Step 9):")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J111" s="572"/>
-      <c r="K111" s="572"/>
-      <c r="L111" s="572"/>
-      <c r="M111" s="572"/>
-      <c r="N111" s="572"/>
-      <c r="O111" s="572"/>
-      <c r="R111" s="572" t="e">
+      <c r="J111" s="571"/>
+      <c r="K111" s="571"/>
+      <c r="L111" s="571"/>
+      <c r="M111" s="571"/>
+      <c r="N111" s="571"/>
+      <c r="O111" s="571"/>
+      <c r="R111" s="571" t="e">
         <f>CONCATENATE("the 'Percent of Area of Developed Lands' (from Step 4) by ",ROUND(T97,2)," pounds (calculated in Step 9):")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S111" s="572"/>
-      <c r="T111" s="572"/>
-      <c r="U111" s="572"/>
-      <c r="V111" s="572"/>
-      <c r="W111" s="572"/>
-      <c r="X111" s="572"/>
+      <c r="S111" s="571"/>
+      <c r="T111" s="571"/>
+      <c r="U111" s="571"/>
+      <c r="V111" s="571"/>
+      <c r="W111" s="571"/>
+      <c r="X111" s="571"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B113" s="94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C113" s="218"/>
       <c r="D113" s="218"/>
       <c r="E113" s="218"/>
       <c r="J113" s="94" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K113" s="218"/>
       <c r="L113" s="218"/>
       <c r="M113" s="218"/>
       <c r="S113" s="94" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="T113" s="218"/>
       <c r="U113" s="218"/>
@@ -20730,13 +20717,13 @@
         <f>(C48/C$51)*C$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D114" s="585" t="e">
+      <c r="D114" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(D48*100,0)," % x ",ROUND(C$97,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E114" s="586"/>
-      <c r="F114" s="586"/>
-      <c r="G114" s="586"/>
+      <c r="E114" s="585"/>
+      <c r="F114" s="585"/>
+      <c r="G114" s="585"/>
       <c r="J114" s="182" t="s">
         <v>157</v>
       </c>
@@ -20744,13 +20731,13 @@
         <f>K48/K$51*K$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L114" s="585" t="e">
+      <c r="L114" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(L48*100,0)," % x ",ROUND(K$97,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M114" s="586"/>
-      <c r="N114" s="586"/>
-      <c r="O114" s="586"/>
+      <c r="M114" s="585"/>
+      <c r="N114" s="585"/>
+      <c r="O114" s="585"/>
       <c r="S114" s="182" t="s">
         <v>157</v>
       </c>
@@ -20758,13 +20745,13 @@
         <f>T48/T$51*T$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U114" s="585" t="e">
+      <c r="U114" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(U48*100,0)," % x ",ROUND(T$97,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V114" s="586"/>
-      <c r="W114" s="586"/>
-      <c r="X114" s="586"/>
+      <c r="V114" s="585"/>
+      <c r="W114" s="585"/>
+      <c r="X114" s="585"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B115" s="187" t="s">
@@ -20774,13 +20761,13 @@
         <f>(C49/C$51)*C$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D115" s="587" t="e">
+      <c r="D115" s="586" t="e">
         <f>CONCATENATE("=   [ ",ROUND(D49*100,0)," % x ",ROUND(C$97,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E115" s="588"/>
-      <c r="F115" s="588"/>
-      <c r="G115" s="588"/>
+      <c r="E115" s="587"/>
+      <c r="F115" s="587"/>
+      <c r="G115" s="587"/>
       <c r="J115" s="187" t="s">
         <v>159</v>
       </c>
@@ -20788,13 +20775,13 @@
         <f>K49/K$51*K$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L115" s="587" t="e">
+      <c r="L115" s="586" t="e">
         <f>CONCATENATE("=   [ ",ROUND(L49*100,0)," % x ",ROUND(K$97,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M115" s="588"/>
-      <c r="N115" s="588"/>
-      <c r="O115" s="588"/>
+      <c r="M115" s="587"/>
+      <c r="N115" s="587"/>
+      <c r="O115" s="587"/>
       <c r="S115" s="187" t="s">
         <v>159</v>
       </c>
@@ -20802,13 +20789,13 @@
         <f>T49/T$51*T$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U115" s="587" t="e">
+      <c r="U115" s="586" t="e">
         <f>CONCATENATE("=   [ ",ROUND(U49*100,0)," % x ",ROUND(T$97,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V115" s="588"/>
-      <c r="W115" s="588"/>
-      <c r="X115" s="588"/>
+      <c r="V115" s="587"/>
+      <c r="W115" s="587"/>
+      <c r="X115" s="587"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B116" s="182" t="s">
@@ -20818,13 +20805,13 @@
         <f>(C50/C$51)*C$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D116" s="585" t="e">
+      <c r="D116" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(D50*100,0)," % x ",ROUND(C$97,2)," pounds ] ")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E116" s="586"/>
-      <c r="F116" s="586"/>
-      <c r="G116" s="586"/>
+      <c r="E116" s="585"/>
+      <c r="F116" s="585"/>
+      <c r="G116" s="585"/>
       <c r="J116" s="182" t="s">
         <v>161</v>
       </c>
@@ -20832,13 +20819,13 @@
         <f>K50/K$51*K$98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L116" s="585" t="e">
+      <c r="L116" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(L50*100,0)," % x ",ROUND(K$97,2)," pounds ]  ")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M116" s="586"/>
-      <c r="N116" s="586"/>
-      <c r="O116" s="586"/>
+      <c r="M116" s="585"/>
+      <c r="N116" s="585"/>
+      <c r="O116" s="585"/>
       <c r="S116" s="182" t="s">
         <v>161</v>
       </c>
@@ -20846,50 +20833,50 @@
         <f>T50/T$51*T$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U116" s="585" t="e">
+      <c r="U116" s="584" t="e">
         <f>CONCATENATE("=   [ ",ROUND(U50*100,0)," % x ",ROUND(T$97,2)," pounds ]  ")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V116" s="586"/>
-      <c r="W116" s="586"/>
-      <c r="X116" s="586"/>
+      <c r="V116" s="585"/>
+      <c r="W116" s="585"/>
+      <c r="X116" s="585"/>
     </row>
     <row r="119" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="580" t="s">
-        <v>197</v>
-      </c>
-      <c r="B119" s="580"/>
-      <c r="C119" s="580"/>
-      <c r="D119" s="580"/>
-      <c r="E119" s="580"/>
-      <c r="F119" s="580"/>
-      <c r="G119" s="580"/>
+      <c r="A119" s="579" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" s="579"/>
+      <c r="C119" s="579"/>
+      <c r="D119" s="579"/>
+      <c r="E119" s="579"/>
+      <c r="F119" s="579"/>
+      <c r="G119" s="579"/>
       <c r="H119" s="491"/>
-      <c r="I119" s="581" t="s">
-        <v>197</v>
-      </c>
-      <c r="J119" s="580"/>
-      <c r="K119" s="580"/>
-      <c r="L119" s="580"/>
-      <c r="M119" s="580"/>
-      <c r="N119" s="580"/>
-      <c r="O119" s="580"/>
+      <c r="I119" s="580" t="s">
+        <v>195</v>
+      </c>
+      <c r="J119" s="579"/>
+      <c r="K119" s="579"/>
+      <c r="L119" s="579"/>
+      <c r="M119" s="579"/>
+      <c r="N119" s="579"/>
+      <c r="O119" s="579"/>
       <c r="P119" s="491"/>
       <c r="Q119" s="491"/>
-      <c r="R119" s="581" t="s">
-        <v>197</v>
-      </c>
-      <c r="S119" s="580"/>
-      <c r="T119" s="580"/>
-      <c r="U119" s="580"/>
-      <c r="V119" s="580"/>
-      <c r="W119" s="580"/>
-      <c r="X119" s="580"/>
+      <c r="R119" s="580" t="s">
+        <v>195</v>
+      </c>
+      <c r="S119" s="579"/>
+      <c r="T119" s="579"/>
+      <c r="U119" s="579"/>
+      <c r="V119" s="579"/>
+      <c r="W119" s="579"/>
+      <c r="X119" s="579"/>
       <c r="Y119" s="492"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B121" s="94" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C121" s="227"/>
       <c r="D121" s="227"/>
@@ -20898,7 +20885,7 @@
       <c r="G121" s="218"/>
       <c r="H121" s="218"/>
       <c r="J121" s="94" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K121" s="227"/>
       <c r="L121" s="227"/>
@@ -20906,7 +20893,7 @@
       <c r="N121" s="218"/>
       <c r="O121" s="218"/>
       <c r="S121" s="94" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="T121" s="227"/>
       <c r="U121" s="227"/>
@@ -21050,81 +21037,81 @@
       <c r="X124" s="186"/>
     </row>
     <row r="128" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="580" t="s">
-        <v>199</v>
-      </c>
-      <c r="B128" s="580"/>
-      <c r="C128" s="580"/>
-      <c r="D128" s="580"/>
-      <c r="E128" s="580"/>
-      <c r="F128" s="580"/>
-      <c r="G128" s="580"/>
+      <c r="A128" s="579" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" s="579"/>
+      <c r="C128" s="579"/>
+      <c r="D128" s="579"/>
+      <c r="E128" s="579"/>
+      <c r="F128" s="579"/>
+      <c r="G128" s="579"/>
       <c r="H128" s="491"/>
-      <c r="I128" s="581" t="s">
-        <v>199</v>
-      </c>
-      <c r="J128" s="580"/>
-      <c r="K128" s="580"/>
-      <c r="L128" s="580"/>
-      <c r="M128" s="580"/>
-      <c r="N128" s="580"/>
-      <c r="O128" s="580"/>
+      <c r="I128" s="580" t="s">
+        <v>197</v>
+      </c>
+      <c r="J128" s="579"/>
+      <c r="K128" s="579"/>
+      <c r="L128" s="579"/>
+      <c r="M128" s="579"/>
+      <c r="N128" s="579"/>
+      <c r="O128" s="579"/>
       <c r="P128" s="491"/>
       <c r="Q128" s="491"/>
-      <c r="R128" s="581" t="s">
-        <v>199</v>
-      </c>
-      <c r="S128" s="580"/>
-      <c r="T128" s="580"/>
-      <c r="U128" s="580"/>
-      <c r="V128" s="580"/>
-      <c r="W128" s="580"/>
-      <c r="X128" s="580"/>
+      <c r="R128" s="580" t="s">
+        <v>197</v>
+      </c>
+      <c r="S128" s="579"/>
+      <c r="T128" s="579"/>
+      <c r="U128" s="579"/>
+      <c r="V128" s="579"/>
+      <c r="W128" s="579"/>
+      <c r="X128" s="579"/>
       <c r="Y128" s="492"/>
     </row>
     <row r="130" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="589" t="s">
-        <v>200</v>
-      </c>
-      <c r="B130" s="589"/>
+      <c r="A130" s="588" t="s">
+        <v>198</v>
+      </c>
+      <c r="B130" s="588"/>
       <c r="C130" s="229" t="s">
         <v>133</v>
       </c>
       <c r="D130" s="230" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130" s="590" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" s="590"/>
-      <c r="I130" s="589" t="s">
-        <v>232</v>
-      </c>
-      <c r="J130" s="589"/>
+        <v>199</v>
+      </c>
+      <c r="E130" s="589" t="s">
+        <v>200</v>
+      </c>
+      <c r="F130" s="589"/>
+      <c r="I130" s="588" t="s">
+        <v>228</v>
+      </c>
+      <c r="J130" s="588"/>
       <c r="K130" s="229" t="s">
         <v>133</v>
       </c>
       <c r="L130" s="230" t="s">
-        <v>201</v>
-      </c>
-      <c r="M130" s="590" t="s">
-        <v>233</v>
-      </c>
-      <c r="N130" s="590"/>
-      <c r="R130" s="589" t="s">
-        <v>252</v>
-      </c>
-      <c r="S130" s="589"/>
+        <v>199</v>
+      </c>
+      <c r="M130" s="589" t="s">
+        <v>229</v>
+      </c>
+      <c r="N130" s="589"/>
+      <c r="R130" s="588" t="s">
+        <v>246</v>
+      </c>
+      <c r="S130" s="588"/>
       <c r="T130" s="229" t="s">
         <v>133</v>
       </c>
       <c r="U130" s="230" t="s">
-        <v>201</v>
-      </c>
-      <c r="V130" s="590" t="s">
-        <v>253</v>
-      </c>
-      <c r="W130" s="590"/>
+        <v>199</v>
+      </c>
+      <c r="V130" s="589" t="s">
+        <v>247</v>
+      </c>
+      <c r="W130" s="589"/>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B131" s="231" t="s">
@@ -21313,158 +21300,158 @@
       <c r="X133" s="186"/>
     </row>
     <row r="137" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="580" t="s">
-        <v>203</v>
-      </c>
-      <c r="B137" s="580"/>
-      <c r="C137" s="580"/>
-      <c r="D137" s="580"/>
-      <c r="E137" s="580"/>
-      <c r="F137" s="580"/>
-      <c r="G137" s="580"/>
+      <c r="A137" s="579" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" s="579"/>
+      <c r="C137" s="579"/>
+      <c r="D137" s="579"/>
+      <c r="E137" s="579"/>
+      <c r="F137" s="579"/>
+      <c r="G137" s="579"/>
       <c r="H137" s="491"/>
-      <c r="I137" s="581" t="s">
-        <v>203</v>
-      </c>
-      <c r="J137" s="580"/>
-      <c r="K137" s="580"/>
-      <c r="L137" s="580"/>
-      <c r="M137" s="580"/>
-      <c r="N137" s="580"/>
-      <c r="O137" s="580"/>
+      <c r="I137" s="580" t="s">
+        <v>201</v>
+      </c>
+      <c r="J137" s="579"/>
+      <c r="K137" s="579"/>
+      <c r="L137" s="579"/>
+      <c r="M137" s="579"/>
+      <c r="N137" s="579"/>
+      <c r="O137" s="579"/>
       <c r="P137" s="491"/>
       <c r="Q137" s="491"/>
-      <c r="R137" s="581" t="s">
-        <v>203</v>
-      </c>
-      <c r="S137" s="580"/>
-      <c r="T137" s="580"/>
-      <c r="U137" s="580"/>
-      <c r="V137" s="580"/>
-      <c r="W137" s="580"/>
-      <c r="X137" s="580"/>
+      <c r="R137" s="580" t="s">
+        <v>201</v>
+      </c>
+      <c r="S137" s="579"/>
+      <c r="T137" s="579"/>
+      <c r="U137" s="579"/>
+      <c r="V137" s="579"/>
+      <c r="W137" s="579"/>
+      <c r="X137" s="579"/>
       <c r="Y137" s="492"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B139" s="91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C139" s="203">
         <f>+C37</f>
         <v>0</v>
       </c>
       <c r="D139" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E139" s="163" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J139" s="91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K139" s="203">
         <f>+K37</f>
         <v>0</v>
       </c>
       <c r="L139" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M139" s="163" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S139" s="91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T139" s="203">
         <f>+T37</f>
         <v>0</v>
       </c>
       <c r="U139" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V139" s="163" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B140" s="237" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C140" s="238" t="e">
         <f>+C65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D140" s="165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E140" s="163" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J140" s="244" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K140" s="238" t="e">
         <f>+K65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L140" s="165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M140" s="163" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S140" s="244" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T140" s="238" t="e">
         <f>+T65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U140" s="165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V140" s="163" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B141" s="124" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C141" s="112" t="e">
         <f>+C139-C140</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D141" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E141" s="239" t="e">
         <f>CONCATENATE("[ ",ROUND(C139,2)," pounds - ",ROUND(C140,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J141" s="124" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K141" s="112" t="e">
         <f>+K139-K140</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L141" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M141" s="239" t="e">
         <f>CONCATENATE(" [ ",ROUND(K139,2)," pounds - ",ROUND(K140,2)," pounds ]")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S141" s="124" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T141" s="112" t="e">
         <f>+T139-T140</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U141" s="91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V141" s="239" t="e">
         <f>CONCATENATE(" [ ",ROUND(T139,2)," pounds - ",ROUND(T140,2)," pounds ]")</f>
@@ -21473,48 +21460,48 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B143" s="91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C143" s="240">
         <f>+C42-C51</f>
         <v>0</v>
       </c>
       <c r="D143" s="91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E143" s="163" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J143" s="91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K143" s="240">
         <f>+K42-K51</f>
         <v>0</v>
       </c>
       <c r="L143" s="91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M143" s="163" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S143" s="91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T143" s="240">
         <f>+T42-T51</f>
         <v>0</v>
       </c>
       <c r="U143" s="91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V143" s="163" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B145" s="241" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C145" s="242" t="e">
         <f>+C141/C143</f>
@@ -21528,7 +21515,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J145" s="241" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K145" s="242" t="e">
         <f>+K141/K143</f>
@@ -21542,7 +21529,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S145" s="241" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="T145" s="242" t="e">
         <f>+T141/T143</f>
@@ -21557,36 +21544,36 @@
       </c>
     </row>
     <row r="148" spans="1:25" s="493" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="580" t="s">
-        <v>213</v>
-      </c>
-      <c r="B148" s="580"/>
-      <c r="C148" s="580"/>
-      <c r="D148" s="580"/>
-      <c r="E148" s="580"/>
-      <c r="F148" s="580"/>
-      <c r="G148" s="580"/>
+      <c r="A148" s="579" t="s">
+        <v>211</v>
+      </c>
+      <c r="B148" s="579"/>
+      <c r="C148" s="579"/>
+      <c r="D148" s="579"/>
+      <c r="E148" s="579"/>
+      <c r="F148" s="579"/>
+      <c r="G148" s="579"/>
       <c r="H148" s="491"/>
-      <c r="I148" s="581" t="s">
-        <v>236</v>
-      </c>
-      <c r="J148" s="580"/>
-      <c r="K148" s="580"/>
-      <c r="L148" s="580"/>
-      <c r="M148" s="580"/>
-      <c r="N148" s="580"/>
-      <c r="O148" s="580"/>
+      <c r="I148" s="580" t="s">
+        <v>232</v>
+      </c>
+      <c r="J148" s="579"/>
+      <c r="K148" s="579"/>
+      <c r="L148" s="579"/>
+      <c r="M148" s="579"/>
+      <c r="N148" s="579"/>
+      <c r="O148" s="579"/>
       <c r="P148" s="491"/>
       <c r="Q148" s="491"/>
-      <c r="R148" s="581" t="s">
-        <v>255</v>
-      </c>
-      <c r="S148" s="580"/>
-      <c r="T148" s="580"/>
-      <c r="U148" s="580"/>
-      <c r="V148" s="580"/>
-      <c r="W148" s="580"/>
-      <c r="X148" s="580"/>
+      <c r="R148" s="580" t="s">
+        <v>249</v>
+      </c>
+      <c r="S148" s="579"/>
+      <c r="T148" s="579"/>
+      <c r="U148" s="579"/>
+      <c r="V148" s="579"/>
+      <c r="W148" s="579"/>
+      <c r="X148" s="579"/>
       <c r="Y148" s="492"/>
     </row>
   </sheetData>
@@ -21686,15 +21673,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21722,263 +21709,263 @@
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="259" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="507" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="507" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="507" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="548" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="507" t="s">
-        <v>511</v>
+      <c r="A6" s="610" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="5" customFormat="1" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="270" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="266" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B9" s="266" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C9" s="267" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="267" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="268" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="267" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="267" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="267" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="267" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="267" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="267" t="s">
-        <v>498</v>
-      </c>
-      <c r="E9" s="268" t="s">
+      <c r="K9" s="267" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="267" t="s">
+      <c r="L9" s="267" t="s">
         <v>301</v>
       </c>
-      <c r="G9" s="267" t="s">
+      <c r="M9" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="H9" s="267" t="s">
+      <c r="N9" s="267" t="s">
         <v>303</v>
       </c>
-      <c r="I9" s="267" t="s">
+      <c r="O9" s="267" t="s">
         <v>304</v>
       </c>
-      <c r="J9" s="267" t="s">
+      <c r="P9" s="267" t="s">
         <v>305</v>
       </c>
-      <c r="K9" s="267" t="s">
+      <c r="Q9" s="267" t="s">
         <v>306</v>
       </c>
-      <c r="L9" s="267" t="s">
+      <c r="R9" s="267" t="s">
         <v>307</v>
       </c>
-      <c r="M9" s="267" t="s">
+      <c r="S9" s="267" t="s">
         <v>308</v>
       </c>
-      <c r="N9" s="267" t="s">
+      <c r="T9" s="267" t="s">
         <v>309</v>
       </c>
-      <c r="O9" s="267" t="s">
+      <c r="U9" s="267" t="s">
         <v>310</v>
       </c>
-      <c r="P9" s="267" t="s">
+      <c r="V9" s="267" t="s">
         <v>311</v>
       </c>
-      <c r="Q9" s="267" t="s">
+      <c r="W9" s="267" t="s">
         <v>312</v>
       </c>
-      <c r="R9" s="267" t="s">
+      <c r="X9" s="267" t="s">
         <v>313</v>
       </c>
-      <c r="S9" s="267" t="s">
+      <c r="Y9" s="269" t="s">
         <v>314</v>
-      </c>
-      <c r="T9" s="267" t="s">
-        <v>315</v>
-      </c>
-      <c r="U9" s="267" t="s">
-        <v>316</v>
-      </c>
-      <c r="V9" s="267" t="s">
-        <v>317</v>
-      </c>
-      <c r="W9" s="267" t="s">
-        <v>318</v>
-      </c>
-      <c r="X9" s="267" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y9" s="269" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="261" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="335" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="336" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="335" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="335" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="335" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="335" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="335" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="336" t="s">
+      <c r="H10" s="335" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="335" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="335" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="335" t="s">
-        <v>497</v>
-      </c>
-      <c r="F10" s="335" t="s">
+      <c r="I10" s="335" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="335" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="335" t="s">
+        <v>278</v>
+      </c>
+      <c r="L10" s="335" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="335" t="s">
+      <c r="M10" s="335" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="335" t="s">
+      <c r="N10" s="335" t="s">
         <v>281</v>
       </c>
-      <c r="I10" s="335" t="s">
+      <c r="O10" s="335" t="s">
         <v>282</v>
       </c>
-      <c r="J10" s="335" t="s">
-        <v>322</v>
-      </c>
-      <c r="K10" s="335" t="s">
+      <c r="P10" s="335" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q10" s="335" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="335" t="s">
+      <c r="R10" s="335" t="s">
         <v>285</v>
       </c>
-      <c r="M10" s="335" t="s">
+      <c r="S10" s="335" t="s">
         <v>286</v>
       </c>
-      <c r="N10" s="335" t="s">
+      <c r="T10" s="335" t="s">
         <v>287</v>
       </c>
-      <c r="O10" s="335" t="s">
+      <c r="U10" s="335" t="s">
         <v>288</v>
       </c>
-      <c r="P10" s="335" t="s">
+      <c r="V10" s="335" t="s">
         <v>289</v>
       </c>
-      <c r="Q10" s="335" t="s">
+      <c r="W10" s="335" t="s">
         <v>290</v>
       </c>
-      <c r="R10" s="335" t="s">
+      <c r="X10" s="335" t="s">
         <v>291</v>
       </c>
-      <c r="S10" s="335" t="s">
+      <c r="Y10" s="335" t="s">
         <v>292</v>
-      </c>
-      <c r="T10" s="335" t="s">
-        <v>293</v>
-      </c>
-      <c r="U10" s="335" t="s">
-        <v>294</v>
-      </c>
-      <c r="V10" s="335" t="s">
-        <v>295</v>
-      </c>
-      <c r="W10" s="335" t="s">
-        <v>296</v>
-      </c>
-      <c r="X10" s="335" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y10" s="335" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -23309,23 +23296,23 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C25" s="338" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="U26" s="339" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="V26" s="340">
         <f>SUMIF(V$11:V$23, "&lt;&gt;#N/A")</f>
@@ -23355,7 +23342,7 @@
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="415"/>
       <c r="B29" s="406" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I29" s="91" t="s">
         <v>99</v>
@@ -23365,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="339" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="V29" s="340">
         <f>SUMIFS(V$11:V$23, V$11:V$23, "&lt;&gt;#N/A", $D$11:$D$23, "Existing")</f>
@@ -23387,7 +23374,7 @@
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="405"/>
       <c r="B30" s="406" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I30" s="91" t="s">
         <v>36</v>
@@ -23400,7 +23387,7 @@
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="409"/>
       <c r="B31" s="406" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I31" s="91" t="s">
         <v>102</v>
@@ -23410,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="339" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="V31" s="340">
         <f>SUMIFS(V$11:V$23, V$11:V$23, "&lt;&gt;#N/A", $D$11:$D$23, "Proposed")</f>
@@ -23432,7 +23419,7 @@
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="411"/>
       <c r="B32" s="406" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I32" s="91" t="s">
         <v>104</v>
@@ -23445,7 +23432,7 @@
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="416"/>
       <c r="B33" s="406" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I33" s="91" t="s">
         <v>106</v>
@@ -23455,13 +23442,13 @@
         <v>0</v>
       </c>
       <c r="T33" s="473" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="468"/>
       <c r="B34" s="472" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I34" s="91" t="s">
         <v>108</v>
@@ -23472,7 +23459,7 @@
       </c>
       <c r="T34" s="474"/>
       <c r="U34" s="339" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="V34" s="340">
         <f t="shared" ref="V34:Y37" si="1">SUMIFS(V$11:V$23, V$11:V$23, "&lt;&gt;#N/A", $A$11:$A$23, $T34)</f>
@@ -23500,7 +23487,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="339" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="V35" s="340">
         <f t="shared" si="1"/>
@@ -23525,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="334" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C36" s="334"/>
       <c r="D36" s="334"/>
@@ -23538,7 +23525,7 @@
       </c>
       <c r="T36" s="464"/>
       <c r="U36" s="339" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="V36" s="340">
         <f t="shared" si="1"/>
@@ -23563,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="334" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="I37" s="91" t="s">
         <v>114</v>
@@ -23573,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="339" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="V37" s="340">
         <f t="shared" si="1"/>
@@ -23594,7 +23581,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="334" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I39" s="504" t="s">
         <v>163</v>
@@ -23606,7 +23593,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="334" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -23681,18 +23668,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D23" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Existing,Proposed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C23" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"RR,ST,Street Sweeping,Stream Restoration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T34:T42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T34:T42" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>$A$11:$A$23</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -23702,7 +23689,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000003000000}">
           <x14:formula1>
             <xm:f>'Landcover Loading Rates'!$B$15:$B$30</xm:f>
           </x14:formula1>
@@ -23715,7 +23702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -23723,7 +23710,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
+      <selection pane="bottomLeft" activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23756,49 +23743,49 @@
       <c r="E1" s="272"/>
       <c r="G1" s="272"/>
       <c r="I1" s="427" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J1" s="428" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="428" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L1" s="428" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N1" s="427" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O1" s="428" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="428" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q1" s="428" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="S1" s="430" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="603" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" s="604"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="605"/>
+      <c r="A2" s="602" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="603"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="604"/>
       <c r="I2" s="273" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J2" s="426"/>
       <c r="K2" s="426"/>
       <c r="L2" s="426"/>
       <c r="N2" s="273" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O2" s="426"/>
       <c r="P2" s="426"/>
@@ -23812,19 +23799,19 @@
         <v>135</v>
       </c>
       <c r="C3" s="276" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D3" s="275" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E3" s="277" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G3" s="278" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I3" s="271" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J3" s="286">
         <f>B5</f>
@@ -23834,14 +23821,14 @@
       <c r="L3" s="454"/>
       <c r="M3" s="454"/>
       <c r="N3" s="454" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O3" s="475">
         <f>B5-J4</f>
         <v>0</v>
       </c>
       <c r="S3" s="518" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23870,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="271" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J4" s="523">
         <v>0</v>
@@ -23879,7 +23866,7 @@
       <c r="L4" s="454"/>
       <c r="M4" s="454"/>
       <c r="N4" s="454" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O4" s="526">
         <v>0</v>
@@ -23910,7 +23897,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="271" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J5" s="271">
         <v>0.35</v>
@@ -23922,7 +23909,7 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="418" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O5" s="418">
         <v>0.35</v>
@@ -23959,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J6" s="429" t="e">
         <f>(J4/J3)*G5*J5</f>
@@ -23975,7 +23962,7 @@
       </c>
       <c r="M6" s="279"/>
       <c r="N6" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O6" s="429" t="e">
         <f>(O4/J3)*G5*O5</f>
@@ -24041,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="273" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="N8" s="273" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -24097,7 +24084,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="271" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J10" s="286">
         <f>B5</f>
@@ -24107,14 +24094,14 @@
       <c r="L10" s="454"/>
       <c r="M10" s="454"/>
       <c r="N10" s="454" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O10" s="475">
         <f>B5-J11</f>
         <v>0</v>
       </c>
       <c r="S10" s="518" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24142,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="271" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J11" s="523">
         <v>0</v>
@@ -24151,7 +24138,7 @@
       <c r="L11" s="454"/>
       <c r="M11" s="454"/>
       <c r="N11" s="454" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O11" s="526">
         <v>0</v>
@@ -24182,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="271" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J12" s="271">
         <v>0.3</v>
@@ -24194,7 +24181,7 @@
         <v>0.22</v>
       </c>
       <c r="N12" s="418" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O12" s="418">
         <v>0.3</v>
@@ -24232,7 +24219,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J13" s="429" t="e">
         <f>(J11/J10)*G5*J12</f>
@@ -24248,7 +24235,7 @@
       </c>
       <c r="M13" s="279"/>
       <c r="N13" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O13" s="429" t="e">
         <f>(O11/J10)*G5*O12</f>
@@ -24315,13 +24302,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="273" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="N15" s="273" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="S15" s="518" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24349,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="271" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J16" s="465">
         <f>B5</f>
@@ -24359,14 +24346,14 @@
       <c r="L16" s="454"/>
       <c r="M16" s="454"/>
       <c r="N16" s="454" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O16" s="476">
         <f>B5-J19</f>
         <v>0</v>
       </c>
       <c r="S16" s="279" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -24394,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="271" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J17" s="522">
         <v>0</v>
@@ -24403,13 +24390,13 @@
       <c r="L17" s="454"/>
       <c r="M17" s="454"/>
       <c r="N17" s="454" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="O17" s="522">
         <v>0</v>
       </c>
       <c r="S17" s="279" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -24437,14 +24424,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="271" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J18" s="271">
         <f>(J17*100)/43560</f>
         <v>0</v>
       </c>
       <c r="N18" s="418" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O18" s="418">
         <f>(O17*100)/43560</f>
@@ -24477,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="271" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J19" s="271">
         <f>J18*2</f>
@@ -24492,7 +24479,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="418" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O19" s="418">
         <f>O18*2</f>
@@ -24529,7 +24516,7 @@
       <c r="F20" s="283"/>
       <c r="G20" s="284"/>
       <c r="I20" s="271" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J20" s="271">
         <v>0.54</v>
@@ -24541,7 +24528,7 @@
         <v>0.4</v>
       </c>
       <c r="N20" s="418" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O20" s="418">
         <v>0.54</v>
@@ -24577,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J21" s="429" t="e">
         <f>(J19*J20*C32)+(J18*(C32-C33))</f>
@@ -24593,7 +24580,7 @@
       </c>
       <c r="M21" s="279"/>
       <c r="N21" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O21" s="429" t="e">
         <f>(O19*O20*C32)+(O18*(C32-C33))</f>
@@ -24611,7 +24598,7 @@
     </row>
     <row r="22" spans="1:19" s="297" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="295" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B22" s="296" t="s">
         <v>65</v>
@@ -24660,11 +24647,11 @@
       <c r="G23" s="298"/>
       <c r="H23" s="419"/>
       <c r="I23" s="299" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M23" s="419"/>
       <c r="N23" s="299" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="O23" s="419"/>
       <c r="P23" s="419"/>
@@ -24722,14 +24709,14 @@
       <c r="G25" s="298"/>
       <c r="H25" s="419"/>
       <c r="I25" s="300" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J25" s="301"/>
       <c r="K25" s="301"/>
       <c r="L25" s="301"/>
       <c r="M25" s="301"/>
       <c r="N25" s="300" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O25" s="301"/>
       <c r="P25" s="301"/>
@@ -24739,7 +24726,7 @@
     </row>
     <row r="26" spans="1:19" s="297" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="302" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B26" s="303">
         <f>SUM(B4:B22)</f>
@@ -24764,14 +24751,14 @@
       </c>
       <c r="H26" s="419"/>
       <c r="I26" s="297" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J26" s="466">
         <f>+'MMW Output'!M19</f>
         <v>0</v>
       </c>
       <c r="N26" s="297" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O26" s="466">
         <f>J26-J27</f>
@@ -24781,13 +24768,13 @@
       <c r="S26" s="271"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="606" t="s">
-        <v>346</v>
-      </c>
-      <c r="B27" s="607"/>
-      <c r="C27" s="607"/>
+      <c r="A27" s="605" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="606"/>
+      <c r="C27" s="606"/>
       <c r="I27" s="271" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J27" s="524">
         <v>0</v>
@@ -24796,7 +24783,7 @@
       <c r="L27" s="301"/>
       <c r="M27" s="301"/>
       <c r="N27" s="454" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O27" s="524">
         <v>0</v>
@@ -24806,17 +24793,17 @@
       <c r="R27" s="307"/>
     </row>
     <row r="28" spans="1:19" s="297" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="608" t="s">
-        <v>347</v>
-      </c>
-      <c r="B28" s="609"/>
-      <c r="C28" s="609"/>
+      <c r="A28" s="607" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="608"/>
+      <c r="C28" s="608"/>
       <c r="D28" s="308"/>
       <c r="E28" s="308"/>
       <c r="G28" s="308"/>
       <c r="H28" s="419"/>
       <c r="I28" s="271" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="J28" s="475" t="e">
         <f>B43</f>
@@ -24832,7 +24819,7 @@
       </c>
       <c r="M28" s="307"/>
       <c r="N28" s="418" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O28" s="475" t="e">
         <f>B43</f>
@@ -24851,10 +24838,10 @@
     </row>
     <row r="29" spans="1:19" s="297" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="309" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B29" s="309" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C29" s="308"/>
       <c r="D29" s="308"/>
@@ -24862,7 +24849,7 @@
       <c r="G29" s="308"/>
       <c r="H29" s="419"/>
       <c r="I29" s="271" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J29" s="301" t="e">
         <f>J27*J28</f>
@@ -24878,7 +24865,7 @@
       </c>
       <c r="M29" s="301"/>
       <c r="N29" s="418" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O29" s="301" t="e">
         <f>O27*O28</f>
@@ -24897,24 +24884,24 @@
     </row>
     <row r="30" spans="1:19" s="297" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="310" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B30" s="311">
         <f>SUM(B31:B40)</f>
         <v>0</v>
       </c>
       <c r="C30" s="312" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D30" s="312" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E30" s="312" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F30" s="313"/>
       <c r="G30" s="522" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H30" s="419"/>
       <c r="I30" s="271"/>
@@ -24951,11 +24938,11 @@
       <c r="G31" s="308"/>
       <c r="H31" s="419"/>
       <c r="I31" s="314" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M31" s="419"/>
       <c r="N31" s="314" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O31" s="419"/>
       <c r="P31" s="419"/>
@@ -24985,14 +24972,14 @@
       <c r="G32" s="308"/>
       <c r="H32" s="419"/>
       <c r="I32" s="297" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J32" s="297">
         <v>0.1</v>
       </c>
       <c r="M32" s="419"/>
       <c r="N32" s="419" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O32" s="419">
         <v>0.1</v>
@@ -25024,7 +25011,7 @@
       <c r="G33" s="308"/>
       <c r="H33" s="419"/>
       <c r="I33" s="297" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J33" s="297" t="e">
         <f>J32*J29</f>
@@ -25040,7 +25027,7 @@
       </c>
       <c r="M33" s="419"/>
       <c r="N33" s="419" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O33" s="419" t="e">
         <f>O32*O29</f>
@@ -25109,7 +25096,7 @@
       <c r="G35" s="308"/>
       <c r="H35" s="419"/>
       <c r="I35" s="279" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J35" s="317" t="e">
         <f>J29+J33</f>
@@ -25125,7 +25112,7 @@
       </c>
       <c r="M35" s="317"/>
       <c r="N35" s="279" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O35" s="317" t="e">
         <f>O29+O33</f>
@@ -25199,14 +25186,14 @@
       <c r="G37" s="308"/>
       <c r="H37" s="419"/>
       <c r="I37" s="273" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J37" s="301"/>
       <c r="K37" s="301"/>
       <c r="L37" s="301"/>
       <c r="M37" s="301"/>
       <c r="N37" s="273" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O37" s="301"/>
       <c r="P37" s="301"/>
@@ -25237,7 +25224,7 @@
       <c r="G38" s="308"/>
       <c r="H38" s="419"/>
       <c r="I38" s="271" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J38" s="301">
         <f>B4</f>
@@ -25247,7 +25234,7 @@
       <c r="L38" s="301"/>
       <c r="M38" s="301"/>
       <c r="N38" s="454" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O38" s="301">
         <f>B4-J39</f>
@@ -25281,7 +25268,7 @@
       <c r="G39" s="308"/>
       <c r="H39" s="419"/>
       <c r="I39" s="271" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J39" s="524">
         <v>0</v>
@@ -25290,7 +25277,7 @@
       <c r="L39" s="454"/>
       <c r="M39" s="301"/>
       <c r="N39" s="454" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O39" s="524">
         <v>0</v>
@@ -25321,7 +25308,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="271" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J40" s="301">
         <v>0.3</v>
@@ -25334,7 +25321,7 @@
       </c>
       <c r="M40" s="301"/>
       <c r="N40" s="418" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O40" s="301">
         <v>0.3</v>
@@ -25351,7 +25338,7 @@
       <c r="A41" s="319"/>
       <c r="B41" s="297"/>
       <c r="I41" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J41" s="317" t="e">
         <f>(J39/J38)*J40*G4</f>
@@ -25367,7 +25354,7 @@
       </c>
       <c r="M41" s="317"/>
       <c r="N41" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O41" s="317" t="e">
         <f>(O39/J38)*O40*G4</f>
@@ -25385,10 +25372,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" s="529" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C42" s="529" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J42" s="301"/>
       <c r="K42" s="301"/>
@@ -25401,7 +25388,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="271" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B43" s="271" t="e">
         <f>+'MMW Output'!N18</f>
@@ -25413,26 +25400,26 @@
       <c r="D43" s="279"/>
       <c r="E43" s="320"/>
       <c r="I43" s="273" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J43" s="301"/>
       <c r="K43" s="301"/>
       <c r="L43" s="301"/>
       <c r="M43" s="301"/>
       <c r="N43" s="273" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O43" s="301"/>
       <c r="P43" s="301"/>
       <c r="Q43" s="301"/>
       <c r="R43" s="301"/>
       <c r="S43" s="518" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="271" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B44" s="511" t="e">
         <f>+'MMW Output'!O18</f>
@@ -25444,7 +25431,7 @@
       <c r="D44" s="279"/>
       <c r="E44" s="320"/>
       <c r="I44" s="271" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J44" s="301">
         <f>B5</f>
@@ -25454,7 +25441,7 @@
       <c r="L44" s="301"/>
       <c r="M44" s="301"/>
       <c r="N44" s="418" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O44" s="301">
         <f>B5-J45</f>
@@ -25466,7 +25453,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="271" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B45" s="511" t="e">
         <f>+'MMW Output'!P18</f>
@@ -25478,7 +25465,7 @@
       <c r="D45" s="279"/>
       <c r="E45" s="320"/>
       <c r="I45" s="271" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J45" s="524">
         <v>0</v>
@@ -25487,7 +25474,7 @@
       <c r="L45" s="301"/>
       <c r="M45" s="301"/>
       <c r="N45" s="418" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O45" s="524">
         <v>0</v>
@@ -25501,7 +25488,7 @@
       <c r="C46" s="279"/>
       <c r="D46" s="279"/>
       <c r="I46" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J46" s="317" t="e">
         <f>(C32-C33)*J45</f>
@@ -25517,7 +25504,7 @@
       </c>
       <c r="M46" s="317"/>
       <c r="N46" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O46" s="317" t="e">
         <f>(C32-C33)*O45</f>
@@ -25548,14 +25535,14 @@
       <c r="A48" s="297"/>
       <c r="B48" s="297"/>
       <c r="I48" s="273" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J48" s="301"/>
       <c r="K48" s="301"/>
       <c r="L48" s="301"/>
       <c r="M48" s="301"/>
       <c r="N48" s="273" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O48" s="301"/>
       <c r="P48" s="301"/>
@@ -25566,7 +25553,7 @@
       <c r="A49" s="297"/>
       <c r="B49" s="297"/>
       <c r="I49" s="271" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J49" s="301">
         <f>O26-O27</f>
@@ -25576,7 +25563,7 @@
       <c r="L49" s="301"/>
       <c r="M49" s="301"/>
       <c r="N49" s="418" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O49" s="301">
         <f>J49-J50</f>
@@ -25590,7 +25577,7 @@
       <c r="A50" s="297"/>
       <c r="B50" s="297"/>
       <c r="I50" s="271" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J50" s="524">
         <v>0</v>
@@ -25599,7 +25586,7 @@
       <c r="L50" s="301"/>
       <c r="M50" s="301"/>
       <c r="N50" s="418" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O50" s="524">
         <v>0</v>
@@ -25611,7 +25598,7 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B51" s="297"/>
       <c r="I51" s="271" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="J51" s="475" t="e">
         <f>B43</f>
@@ -25627,7 +25614,7 @@
       </c>
       <c r="M51" s="301"/>
       <c r="N51" s="418" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O51" s="475" t="e">
         <f>B43</f>
@@ -25650,7 +25637,7 @@
       <c r="E52" s="271"/>
       <c r="G52" s="271"/>
       <c r="I52" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J52" s="317" t="e">
         <f>J50*J51</f>
@@ -25666,7 +25653,7 @@
       </c>
       <c r="M52" s="317"/>
       <c r="N52" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O52" s="317" t="e">
         <f>O50*O51</f>
@@ -25706,21 +25693,21 @@
       <c r="E54" s="271"/>
       <c r="G54" s="271"/>
       <c r="I54" s="321" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J54" s="317"/>
       <c r="K54" s="317"/>
       <c r="L54" s="317"/>
       <c r="M54" s="317"/>
       <c r="N54" s="321" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O54" s="317"/>
       <c r="P54" s="317"/>
       <c r="Q54" s="317"/>
       <c r="R54" s="323"/>
       <c r="S54" s="518" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -25728,7 +25715,7 @@
       <c r="E55" s="271"/>
       <c r="G55" s="271"/>
       <c r="I55" s="322" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J55" s="323">
         <f>B5</f>
@@ -25738,7 +25725,7 @@
       <c r="L55" s="323"/>
       <c r="M55" s="323"/>
       <c r="N55" s="322" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O55" s="323">
         <f>B5-J56</f>
@@ -25753,7 +25740,7 @@
       <c r="E56" s="271"/>
       <c r="G56" s="271"/>
       <c r="I56" s="322" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J56" s="525">
         <v>0</v>
@@ -25762,7 +25749,7 @@
       <c r="L56" s="323"/>
       <c r="M56" s="323"/>
       <c r="N56" s="322" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O56" s="525">
         <v>0</v>
@@ -25776,7 +25763,7 @@
       <c r="E57" s="271"/>
       <c r="G57" s="271"/>
       <c r="I57" s="322" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J57" s="323">
         <v>0.16</v>
@@ -25789,7 +25776,7 @@
       </c>
       <c r="M57" s="323"/>
       <c r="N57" s="322" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O57" s="323">
         <v>0.16</v>
@@ -25807,7 +25794,7 @@
       <c r="E58" s="271"/>
       <c r="G58" s="271"/>
       <c r="I58" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J58" s="317" t="e">
         <f>(J56/J55)*J57*G5</f>
@@ -25823,7 +25810,7 @@
       </c>
       <c r="M58" s="317"/>
       <c r="N58" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O58" s="317" t="e">
         <f>(O56/J55)*O57*G5</f>
@@ -25863,14 +25850,14 @@
       <c r="E60" s="271"/>
       <c r="G60" s="271"/>
       <c r="I60" s="321" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J60" s="317"/>
       <c r="K60" s="317"/>
       <c r="L60" s="317"/>
       <c r="M60" s="317"/>
       <c r="N60" s="321" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O60" s="317"/>
       <c r="P60" s="317"/>
@@ -25885,7 +25872,7 @@
       <c r="E61" s="271"/>
       <c r="G61" s="271"/>
       <c r="I61" s="322" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J61" s="323">
         <f>+'MMW Output'!M19</f>
@@ -25895,7 +25882,7 @@
       <c r="L61" s="323"/>
       <c r="M61" s="323"/>
       <c r="N61" s="322" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O61" s="323">
         <f>J61-J62</f>
@@ -25912,7 +25899,7 @@
       <c r="E62" s="271"/>
       <c r="G62" s="271"/>
       <c r="I62" s="322" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J62" s="525">
         <v>0</v>
@@ -25921,7 +25908,7 @@
       <c r="L62" s="323"/>
       <c r="M62" s="323"/>
       <c r="N62" s="322" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O62" s="525">
         <v>0</v>
@@ -25937,7 +25924,7 @@
       <c r="E63" s="271"/>
       <c r="G63" s="271"/>
       <c r="I63" s="322" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J63" s="323">
         <v>2.5499999999999998</v>
@@ -25950,7 +25937,7 @@
       </c>
       <c r="M63" s="325"/>
       <c r="N63" s="322" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O63" s="323">
         <v>2.5499999999999998</v>
@@ -25970,7 +25957,7 @@
       <c r="E64" s="271"/>
       <c r="G64" s="271"/>
       <c r="I64" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J64" s="317">
         <f>J62*J63</f>
@@ -25986,7 +25973,7 @@
       </c>
       <c r="M64" s="317"/>
       <c r="N64" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O64" s="317">
         <f>O62*O63</f>
@@ -26026,14 +26013,14 @@
       <c r="E66" s="271"/>
       <c r="G66" s="271"/>
       <c r="I66" s="273" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J66" s="301"/>
       <c r="K66" s="301"/>
       <c r="L66" s="301"/>
       <c r="M66" s="301"/>
       <c r="N66" s="273" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O66" s="301"/>
       <c r="P66" s="301"/>
@@ -26047,14 +26034,14 @@
       <c r="E67" s="271"/>
       <c r="G67" s="271"/>
       <c r="I67" s="300" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J67" s="301"/>
       <c r="K67" s="301"/>
       <c r="L67" s="301"/>
       <c r="M67" s="301"/>
       <c r="N67" s="300" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O67" s="301"/>
       <c r="P67" s="301"/>
@@ -26068,7 +26055,7 @@
       <c r="E68" s="271"/>
       <c r="G68" s="271"/>
       <c r="I68" s="326" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J68" s="301">
         <f>B5</f>
@@ -26078,7 +26065,7 @@
       <c r="L68" s="301"/>
       <c r="M68" s="301"/>
       <c r="N68" s="326" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O68" s="301">
         <f>B5-J69</f>
@@ -26095,7 +26082,7 @@
       <c r="E69" s="271"/>
       <c r="G69" s="271"/>
       <c r="I69" s="326" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J69" s="524">
         <v>0</v>
@@ -26104,7 +26091,7 @@
       <c r="L69" s="301"/>
       <c r="M69" s="301"/>
       <c r="N69" s="326" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="O69" s="524">
         <v>0</v>
@@ -26120,7 +26107,7 @@
       <c r="E70" s="271"/>
       <c r="G70" s="271"/>
       <c r="I70" s="326" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J70" s="301"/>
       <c r="K70" s="301">
@@ -26131,7 +26118,7 @@
       </c>
       <c r="M70" s="301"/>
       <c r="N70" s="326" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O70" s="301"/>
       <c r="P70" s="301">
@@ -26149,7 +26136,7 @@
       <c r="E71" s="271"/>
       <c r="G71" s="271"/>
       <c r="I71" s="271" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J71" s="301"/>
       <c r="K71" s="301" t="e">
@@ -26162,7 +26149,7 @@
       </c>
       <c r="M71" s="301"/>
       <c r="N71" s="418" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O71" s="301"/>
       <c r="P71" s="301" t="e">
@@ -26199,14 +26186,14 @@
       <c r="E73" s="271"/>
       <c r="G73" s="271"/>
       <c r="I73" s="300" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J73" s="301"/>
       <c r="K73" s="301"/>
       <c r="L73" s="301"/>
       <c r="M73" s="301"/>
       <c r="N73" s="300" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O73" s="301"/>
       <c r="P73" s="301"/>
@@ -26220,7 +26207,7 @@
       <c r="E74" s="271"/>
       <c r="G74" s="271"/>
       <c r="I74" s="326" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J74" s="301"/>
       <c r="K74" s="301">
@@ -26231,7 +26218,7 @@
       </c>
       <c r="M74" s="301"/>
       <c r="N74" s="326" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O74" s="301"/>
       <c r="P74" s="301">
@@ -26249,7 +26236,7 @@
       <c r="E75" s="271"/>
       <c r="G75" s="271"/>
       <c r="I75" s="326" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J75" s="301"/>
       <c r="K75" s="301" t="e">
@@ -26262,7 +26249,7 @@
       </c>
       <c r="M75" s="301"/>
       <c r="N75" s="326" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O75" s="301"/>
       <c r="P75" s="301" t="e">
@@ -26299,7 +26286,7 @@
       <c r="E77" s="271"/>
       <c r="G77" s="271"/>
       <c r="I77" s="279" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J77" s="317">
         <v>0</v>
@@ -26314,7 +26301,7 @@
       </c>
       <c r="M77" s="317"/>
       <c r="N77" s="279" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O77" s="317">
         <v>0</v>
@@ -26351,14 +26338,14 @@
       <c r="E79" s="271"/>
       <c r="G79" s="271"/>
       <c r="I79" s="273" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J79" s="301"/>
       <c r="K79" s="301"/>
       <c r="L79" s="301"/>
       <c r="M79" s="301"/>
       <c r="N79" s="273" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O79" s="301"/>
       <c r="P79" s="301"/>
@@ -26372,7 +26359,7 @@
       <c r="E80" s="271"/>
       <c r="G80" s="271"/>
       <c r="I80" s="271" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J80" s="301"/>
       <c r="K80" s="301">
@@ -26385,7 +26372,7 @@
       </c>
       <c r="M80" s="301"/>
       <c r="N80" s="418" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="O80" s="301"/>
       <c r="P80" s="301" t="e">
@@ -26400,7 +26387,7 @@
     </row>
     <row r="81" spans="2:19" s="506" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I81" s="506" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J81" s="301"/>
       <c r="K81" s="514" t="e">
@@ -26413,7 +26400,7 @@
       </c>
       <c r="M81" s="301"/>
       <c r="N81" s="506" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="O81" s="301"/>
       <c r="P81" s="514" t="e">
@@ -26428,7 +26415,7 @@
     </row>
     <row r="82" spans="2:19" s="506" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I82" s="506" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J82" s="301"/>
       <c r="K82" s="514" t="e">
@@ -26441,7 +26428,7 @@
       </c>
       <c r="M82" s="301"/>
       <c r="N82" s="506" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="O82" s="301"/>
       <c r="P82" s="514" t="e">
@@ -26461,7 +26448,7 @@
       <c r="E83" s="271"/>
       <c r="G83" s="271"/>
       <c r="I83" s="271" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="J83" s="524">
         <v>0</v>
@@ -26470,7 +26457,7 @@
       <c r="L83" s="301"/>
       <c r="M83" s="301"/>
       <c r="N83" s="418" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="O83" s="524">
         <v>0</v>
@@ -26481,7 +26468,7 @@
     </row>
     <row r="84" spans="2:19" s="506" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I84" s="506" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J84" s="524">
         <v>0</v>
@@ -26490,7 +26477,7 @@
       <c r="L84" s="301"/>
       <c r="M84" s="301"/>
       <c r="N84" s="506" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="O84" s="524">
         <v>0</v>
@@ -26506,7 +26493,7 @@
       <c r="E85" s="271"/>
       <c r="G85" s="271"/>
       <c r="I85" s="271" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J85" s="301"/>
       <c r="K85" s="301">
@@ -26517,7 +26504,7 @@
       </c>
       <c r="M85" s="301"/>
       <c r="N85" s="418" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O85" s="301"/>
       <c r="P85" s="301">
@@ -26535,7 +26522,7 @@
       <c r="E86" s="271"/>
       <c r="G86" s="271"/>
       <c r="I86" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J86" s="301"/>
       <c r="K86" s="317" t="e">
@@ -26548,7 +26535,7 @@
       </c>
       <c r="M86" s="317"/>
       <c r="N86" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O86" s="301"/>
       <c r="P86" s="317" t="e">
@@ -26583,26 +26570,26 @@
       <c r="E88" s="271"/>
       <c r="G88" s="271"/>
       <c r="I88" s="515" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J88" s="301"/>
       <c r="K88" s="301"/>
       <c r="L88" s="301"/>
       <c r="M88" s="301"/>
       <c r="N88" s="515" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="O88" s="301"/>
       <c r="P88" s="301"/>
       <c r="Q88" s="301"/>
       <c r="R88" s="301"/>
       <c r="S88" s="518" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="2:19" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I89" s="511" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J89" s="301">
         <f>B5</f>
@@ -26612,7 +26599,7 @@
       <c r="L89" s="301"/>
       <c r="M89" s="301"/>
       <c r="N89" s="511" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O89" s="301">
         <f>B5-J90</f>
@@ -26624,7 +26611,7 @@
     </row>
     <row r="90" spans="2:19" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I90" s="511" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J90" s="524">
         <v>0</v>
@@ -26633,7 +26620,7 @@
       <c r="L90" s="301"/>
       <c r="M90" s="301"/>
       <c r="N90" s="511" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="O90" s="524">
         <v>0</v>
@@ -26644,7 +26631,7 @@
     </row>
     <row r="91" spans="2:19" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I91" s="511" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J91" s="301">
         <v>0.17</v>
@@ -26657,7 +26644,7 @@
       </c>
       <c r="M91" s="301"/>
       <c r="N91" s="511" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O91" s="301">
         <v>0.17</v>
@@ -26672,7 +26659,7 @@
     </row>
     <row r="92" spans="2:19" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I92" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J92" s="429" t="e">
         <f>(J90/J89)*G5*J91</f>
@@ -26688,7 +26675,7 @@
       </c>
       <c r="M92" s="301"/>
       <c r="N92" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O92" s="429" t="e">
         <f>(O90/J89)*G5*O91</f>
@@ -26716,14 +26703,14 @@
     </row>
     <row r="94" spans="2:19" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I94" s="515" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="J94" s="301"/>
       <c r="K94" s="301"/>
       <c r="L94" s="301"/>
       <c r="M94" s="301"/>
       <c r="N94" s="515" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="O94" s="301"/>
       <c r="P94" s="301"/>
@@ -26732,7 +26719,7 @@
     </row>
     <row r="95" spans="2:19" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I95" s="511" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="J95" s="524">
         <v>0</v>
@@ -26741,7 +26728,7 @@
       <c r="L95" s="301"/>
       <c r="M95" s="301"/>
       <c r="N95" s="511" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O95" s="301">
         <f>J95-J96</f>
@@ -26753,7 +26740,7 @@
     </row>
     <row r="96" spans="2:19" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I96" s="511" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="J96" s="524">
         <v>0</v>
@@ -26762,7 +26749,7 @@
       <c r="L96" s="301"/>
       <c r="M96" s="301"/>
       <c r="N96" s="511" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="O96" s="524">
         <v>0</v>
@@ -26773,7 +26760,7 @@
     </row>
     <row r="97" spans="2:18" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I97" s="511" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J97" s="301">
         <v>2.5499999999999998</v>
@@ -26786,7 +26773,7 @@
       </c>
       <c r="M97" s="301"/>
       <c r="N97" s="511" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O97" s="301">
         <v>2.5499999999999998</v>
@@ -26801,7 +26788,7 @@
     </row>
     <row r="98" spans="2:18" s="511" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I98" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J98" s="301">
         <f>J96*J97</f>
@@ -26817,7 +26804,7 @@
       </c>
       <c r="M98" s="301"/>
       <c r="N98" s="279" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O98" s="301">
         <f>O96*O97</f>
@@ -26865,7 +26852,7 @@
       <c r="E101" s="271"/>
       <c r="G101" s="271"/>
       <c r="I101" s="324" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J101" s="328" t="e">
         <f>J6+J13+J21+J35+J41+J46+J52+J58+J64+J77+J86+J92+J98</f>
@@ -26881,7 +26868,7 @@
       </c>
       <c r="M101" s="328"/>
       <c r="N101" s="324" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O101" s="328" t="e">
         <f>O6+O13+O21+O35+O41+O46+O52+O58+O64</f>
@@ -26904,7 +26891,7 @@
       <c r="E102" s="271"/>
       <c r="G102" s="271"/>
       <c r="I102" s="329" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J102" s="329" t="e">
         <f>J101/G26*100</f>
@@ -26920,7 +26907,7 @@
       </c>
       <c r="M102" s="329"/>
       <c r="N102" s="329" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O102" s="329" t="e">
         <f>O101/G26*100</f>
@@ -26956,7 +26943,7 @@
       <c r="E105" s="271"/>
       <c r="G105" s="271"/>
       <c r="I105" s="322" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="J105" s="324"/>
       <c r="K105" s="324"/>
@@ -27009,7 +26996,7 @@
       <c r="E108" s="271"/>
       <c r="G108" s="271"/>
       <c r="N108" s="520" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
@@ -27040,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="519" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P110" s="517"/>
       <c r="Q110" s="517"/>
@@ -27052,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="519" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="112" spans="2:18" s="516" customFormat="1" x14ac:dyDescent="0.25">
@@ -27061,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="519" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.25">
@@ -27079,7 +27066,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="519" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="2:15" s="516" customFormat="1" x14ac:dyDescent="0.25">
@@ -27088,7 +27075,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="519" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.25">
@@ -27102,7 +27089,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="519" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.25">
@@ -27488,7 +27475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -27512,38 +27499,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="331" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F1" s="610" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="610"/>
-      <c r="H1" s="610"/>
-      <c r="J1" s="610" t="s">
-        <v>446</v>
-      </c>
-      <c r="K1" s="610"/>
-      <c r="L1" s="610"/>
+      <c r="F1" s="609" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="J1" s="609" t="s">
+        <v>440</v>
+      </c>
+      <c r="K1" s="609"/>
+      <c r="L1" s="609"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="332" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G2" s="332" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H2" s="332" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J2" s="332" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K2" s="332" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L2" s="332" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N2" s="334" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -27551,12 +27538,12 @@
       <c r="G3" s="333"/>
       <c r="H3" s="333"/>
       <c r="N3" s="334" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="253" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F4" s="501">
         <f>+'Agricultural BMPs'!G26</f>
@@ -27584,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="334" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -27598,7 +27585,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="253" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F6" s="501">
         <f>'Urban BMPs'!V29</f>
@@ -27638,7 +27625,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="253" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F8" s="501">
         <f>'Urban BMPs'!V31</f>
@@ -27679,7 +27666,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="253" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F10" s="501" t="e">
         <f>+'Agricultural BMPs'!J101</f>
@@ -27718,7 +27705,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="253" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F12" s="501" t="e">
         <f>+'Agricultural BMPs'!O101</f>
@@ -27766,7 +27753,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F15" s="501" t="e">
         <f>SUM(F6:F12)</f>
@@ -27796,7 +27783,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F16" s="501" t="e">
         <f>F4-F15</f>
@@ -27826,7 +27813,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="400" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B17" s="401"/>
       <c r="C17" s="401"/>
@@ -27870,7 +27857,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F20" s="501" t="e">
         <f>F4-(F6+F10)</f>
@@ -27900,7 +27887,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F21" s="501" t="e">
         <f>F8+F12</f>
@@ -27930,7 +27917,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="400" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B22" s="401"/>
       <c r="C22" s="401"/>
@@ -27964,12 +27951,12 @@
     </row>
     <row r="26" spans="1:12" s="253" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="253" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="253" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="253" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
